--- a/maps/map_1.xlsx
+++ b/maps/map_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFFUK\hack_kosice\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE31DADB-7954-46D0-B35F-8646C85408BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B194FD9B-1D44-4ABB-8397-924F3EFF8335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CABF5136-70F8-4831-8793-055DD118F712}"/>
   </bookViews>
@@ -122,21 +122,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63F04F9-09F8-46D7-B1F3-9481DDDF328F}">
-  <dimension ref="A1:DD150"/>
+  <dimension ref="A1:BY150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="19" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="BK170" sqref="BK170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
     <col min="77" max="77" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,39 +693,8 @@
       <c r="BY1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,39 +926,8 @@
       <c r="BY2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-      <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
-      <c r="CR2" s="1"/>
-      <c r="CS2" s="1"/>
-      <c r="CT2" s="1"/>
-      <c r="CU2" s="1"/>
-      <c r="CV2" s="1"/>
-      <c r="CW2" s="1"/>
-      <c r="CX2" s="1"/>
-      <c r="CY2" s="1"/>
-      <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
-      <c r="DC2" s="1"/>
-      <c r="DD2" s="1"/>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,39 +1159,8 @@
       <c r="BY3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
-      <c r="CF3" s="1"/>
-      <c r="CG3" s="1"/>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1"/>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1"/>
-      <c r="CL3" s="1"/>
-      <c r="CM3" s="1"/>
-      <c r="CN3" s="1"/>
-      <c r="CO3" s="1"/>
-      <c r="CP3" s="1"/>
-      <c r="CQ3" s="1"/>
-      <c r="CR3" s="1"/>
-      <c r="CS3" s="1"/>
-      <c r="CT3" s="1"/>
-      <c r="CU3" s="1"/>
-      <c r="CV3" s="1"/>
-      <c r="CW3" s="1"/>
-      <c r="CX3" s="1"/>
-      <c r="CY3" s="1"/>
-      <c r="CZ3" s="1"/>
-      <c r="DA3" s="1"/>
-      <c r="DB3" s="1"/>
-      <c r="DC3" s="1"/>
-      <c r="DD3" s="1"/>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,39 +1392,8 @@
       <c r="BY4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ4" s="1"/>
-      <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
-      <c r="CF4" s="1"/>
-      <c r="CG4" s="1"/>
-      <c r="CH4" s="1"/>
-      <c r="CI4" s="1"/>
-      <c r="CJ4" s="1"/>
-      <c r="CK4" s="1"/>
-      <c r="CL4" s="1"/>
-      <c r="CM4" s="1"/>
-      <c r="CN4" s="1"/>
-      <c r="CO4" s="1"/>
-      <c r="CP4" s="1"/>
-      <c r="CQ4" s="1"/>
-      <c r="CR4" s="1"/>
-      <c r="CS4" s="1"/>
-      <c r="CT4" s="1"/>
-      <c r="CU4" s="1"/>
-      <c r="CV4" s="1"/>
-      <c r="CW4" s="1"/>
-      <c r="CX4" s="1"/>
-      <c r="CY4" s="1"/>
-      <c r="CZ4" s="1"/>
-      <c r="DA4" s="1"/>
-      <c r="DB4" s="1"/>
-      <c r="DC4" s="1"/>
-      <c r="DD4" s="1"/>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1749,39 +1625,8 @@
       <c r="BY5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ5" s="1"/>
-      <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
-      <c r="CF5" s="1"/>
-      <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
-      <c r="CI5" s="1"/>
-      <c r="CJ5" s="1"/>
-      <c r="CK5" s="1"/>
-      <c r="CL5" s="1"/>
-      <c r="CM5" s="1"/>
-      <c r="CN5" s="1"/>
-      <c r="CO5" s="1"/>
-      <c r="CP5" s="1"/>
-      <c r="CQ5" s="1"/>
-      <c r="CR5" s="1"/>
-      <c r="CS5" s="1"/>
-      <c r="CT5" s="1"/>
-      <c r="CU5" s="1"/>
-      <c r="CV5" s="1"/>
-      <c r="CW5" s="1"/>
-      <c r="CX5" s="1"/>
-      <c r="CY5" s="1"/>
-      <c r="CZ5" s="1"/>
-      <c r="DA5" s="1"/>
-      <c r="DB5" s="1"/>
-      <c r="DC5" s="1"/>
-      <c r="DD5" s="1"/>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2013,39 +1858,8 @@
       <c r="BY6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ6" s="1"/>
-      <c r="CA6" s="1"/>
-      <c r="CB6" s="1"/>
-      <c r="CC6" s="1"/>
-      <c r="CD6" s="1"/>
-      <c r="CE6" s="1"/>
-      <c r="CF6" s="1"/>
-      <c r="CG6" s="1"/>
-      <c r="CH6" s="1"/>
-      <c r="CI6" s="1"/>
-      <c r="CJ6" s="1"/>
-      <c r="CK6" s="1"/>
-      <c r="CL6" s="1"/>
-      <c r="CM6" s="1"/>
-      <c r="CN6" s="1"/>
-      <c r="CO6" s="1"/>
-      <c r="CP6" s="1"/>
-      <c r="CQ6" s="1"/>
-      <c r="CR6" s="1"/>
-      <c r="CS6" s="1"/>
-      <c r="CT6" s="1"/>
-      <c r="CU6" s="1"/>
-      <c r="CV6" s="1"/>
-      <c r="CW6" s="1"/>
-      <c r="CX6" s="1"/>
-      <c r="CY6" s="1"/>
-      <c r="CZ6" s="1"/>
-      <c r="DA6" s="1"/>
-      <c r="DB6" s="1"/>
-      <c r="DC6" s="1"/>
-      <c r="DD6" s="1"/>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2277,39 +2091,8 @@
       <c r="BY7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ7" s="1"/>
-      <c r="CA7" s="1"/>
-      <c r="CB7" s="1"/>
-      <c r="CC7" s="1"/>
-      <c r="CD7" s="1"/>
-      <c r="CE7" s="1"/>
-      <c r="CF7" s="1"/>
-      <c r="CG7" s="1"/>
-      <c r="CH7" s="1"/>
-      <c r="CI7" s="1"/>
-      <c r="CJ7" s="1"/>
-      <c r="CK7" s="1"/>
-      <c r="CL7" s="1"/>
-      <c r="CM7" s="1"/>
-      <c r="CN7" s="1"/>
-      <c r="CO7" s="1"/>
-      <c r="CP7" s="1"/>
-      <c r="CQ7" s="1"/>
-      <c r="CR7" s="1"/>
-      <c r="CS7" s="1"/>
-      <c r="CT7" s="1"/>
-      <c r="CU7" s="1"/>
-      <c r="CV7" s="1"/>
-      <c r="CW7" s="1"/>
-      <c r="CX7" s="1"/>
-      <c r="CY7" s="1"/>
-      <c r="CZ7" s="1"/>
-      <c r="DA7" s="1"/>
-      <c r="DB7" s="1"/>
-      <c r="DC7" s="1"/>
-      <c r="DD7" s="1"/>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2541,39 +2324,8 @@
       <c r="BY8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ8" s="1"/>
-      <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
-      <c r="CF8" s="1"/>
-      <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
-      <c r="CI8" s="1"/>
-      <c r="CJ8" s="1"/>
-      <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
-      <c r="CM8" s="1"/>
-      <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
-      <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
-      <c r="CT8" s="1"/>
-      <c r="CU8" s="1"/>
-      <c r="CV8" s="1"/>
-      <c r="CW8" s="1"/>
-      <c r="CX8" s="1"/>
-      <c r="CY8" s="1"/>
-      <c r="CZ8" s="1"/>
-      <c r="DA8" s="1"/>
-      <c r="DB8" s="1"/>
-      <c r="DC8" s="1"/>
-      <c r="DD8" s="1"/>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2805,39 +2557,8 @@
       <c r="BY9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
-      <c r="CL9" s="1"/>
-      <c r="CM9" s="1"/>
-      <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
-      <c r="CP9" s="1"/>
-      <c r="CQ9" s="1"/>
-      <c r="CR9" s="1"/>
-      <c r="CS9" s="1"/>
-      <c r="CT9" s="1"/>
-      <c r="CU9" s="1"/>
-      <c r="CV9" s="1"/>
-      <c r="CW9" s="1"/>
-      <c r="CX9" s="1"/>
-      <c r="CY9" s="1"/>
-      <c r="CZ9" s="1"/>
-      <c r="DA9" s="1"/>
-      <c r="DB9" s="1"/>
-      <c r="DC9" s="1"/>
-      <c r="DD9" s="1"/>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3069,39 +2790,8 @@
       <c r="BY10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ10" s="1"/>
-      <c r="CA10" s="1"/>
-      <c r="CB10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
-      <c r="CI10" s="1"/>
-      <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CL10" s="1"/>
-      <c r="CM10" s="1"/>
-      <c r="CN10" s="1"/>
-      <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
-      <c r="CQ10" s="1"/>
-      <c r="CR10" s="1"/>
-      <c r="CS10" s="1"/>
-      <c r="CT10" s="1"/>
-      <c r="CU10" s="1"/>
-      <c r="CV10" s="1"/>
-      <c r="CW10" s="1"/>
-      <c r="CX10" s="1"/>
-      <c r="CY10" s="1"/>
-      <c r="CZ10" s="1"/>
-      <c r="DA10" s="1"/>
-      <c r="DB10" s="1"/>
-      <c r="DC10" s="1"/>
-      <c r="DD10" s="1"/>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3333,39 +3023,8 @@
       <c r="BY11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
-      <c r="CU11" s="1"/>
-      <c r="CV11" s="1"/>
-      <c r="CW11" s="1"/>
-      <c r="CX11" s="1"/>
-      <c r="CY11" s="1"/>
-      <c r="CZ11" s="1"/>
-      <c r="DA11" s="1"/>
-      <c r="DB11" s="1"/>
-      <c r="DC11" s="1"/>
-      <c r="DD11" s="1"/>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3597,39 +3256,8 @@
       <c r="BY12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ12" s="1"/>
-      <c r="CA12" s="1"/>
-      <c r="CB12" s="1"/>
-      <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
-      <c r="CF12" s="1"/>
-      <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
-      <c r="CI12" s="1"/>
-      <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
-      <c r="CL12" s="1"/>
-      <c r="CM12" s="1"/>
-      <c r="CN12" s="1"/>
-      <c r="CO12" s="1"/>
-      <c r="CP12" s="1"/>
-      <c r="CQ12" s="1"/>
-      <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
-      <c r="CT12" s="1"/>
-      <c r="CU12" s="1"/>
-      <c r="CV12" s="1"/>
-      <c r="CW12" s="1"/>
-      <c r="CX12" s="1"/>
-      <c r="CY12" s="1"/>
-      <c r="CZ12" s="1"/>
-      <c r="DA12" s="1"/>
-      <c r="DB12" s="1"/>
-      <c r="DC12" s="1"/>
-      <c r="DD12" s="1"/>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3861,39 +3489,8 @@
       <c r="BY13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ13" s="1"/>
-      <c r="CA13" s="1"/>
-      <c r="CB13" s="1"/>
-      <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
-      <c r="CI13" s="1"/>
-      <c r="CJ13" s="1"/>
-      <c r="CK13" s="1"/>
-      <c r="CL13" s="1"/>
-      <c r="CM13" s="1"/>
-      <c r="CN13" s="1"/>
-      <c r="CO13" s="1"/>
-      <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
-      <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
-      <c r="CU13" s="1"/>
-      <c r="CV13" s="1"/>
-      <c r="CW13" s="1"/>
-      <c r="CX13" s="1"/>
-      <c r="CY13" s="1"/>
-      <c r="CZ13" s="1"/>
-      <c r="DA13" s="1"/>
-      <c r="DB13" s="1"/>
-      <c r="DC13" s="1"/>
-      <c r="DD13" s="1"/>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4125,39 +3722,8 @@
       <c r="BY14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ14" s="1"/>
-      <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
-      <c r="CL14" s="1"/>
-      <c r="CM14" s="1"/>
-      <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
-      <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
-      <c r="CT14" s="1"/>
-      <c r="CU14" s="1"/>
-      <c r="CV14" s="1"/>
-      <c r="CW14" s="1"/>
-      <c r="CX14" s="1"/>
-      <c r="CY14" s="1"/>
-      <c r="CZ14" s="1"/>
-      <c r="DA14" s="1"/>
-      <c r="DB14" s="1"/>
-      <c r="DC14" s="1"/>
-      <c r="DD14" s="1"/>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -4389,39 +3955,8 @@
       <c r="BY15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ15" s="1"/>
-      <c r="CA15" s="1"/>
-      <c r="CB15" s="1"/>
-      <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
-      <c r="CF15" s="1"/>
-      <c r="CG15" s="1"/>
-      <c r="CH15" s="1"/>
-      <c r="CI15" s="1"/>
-      <c r="CJ15" s="1"/>
-      <c r="CK15" s="1"/>
-      <c r="CL15" s="1"/>
-      <c r="CM15" s="1"/>
-      <c r="CN15" s="1"/>
-      <c r="CO15" s="1"/>
-      <c r="CP15" s="1"/>
-      <c r="CQ15" s="1"/>
-      <c r="CR15" s="1"/>
-      <c r="CS15" s="1"/>
-      <c r="CT15" s="1"/>
-      <c r="CU15" s="1"/>
-      <c r="CV15" s="1"/>
-      <c r="CW15" s="1"/>
-      <c r="CX15" s="1"/>
-      <c r="CY15" s="1"/>
-      <c r="CZ15" s="1"/>
-      <c r="DA15" s="1"/>
-      <c r="DB15" s="1"/>
-      <c r="DC15" s="1"/>
-      <c r="DD15" s="1"/>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -4653,39 +4188,8 @@
       <c r="BY16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ16" s="1"/>
-      <c r="CA16" s="1"/>
-      <c r="CB16" s="1"/>
-      <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
-      <c r="CF16" s="1"/>
-      <c r="CG16" s="1"/>
-      <c r="CH16" s="1"/>
-      <c r="CI16" s="1"/>
-      <c r="CJ16" s="1"/>
-      <c r="CK16" s="1"/>
-      <c r="CL16" s="1"/>
-      <c r="CM16" s="1"/>
-      <c r="CN16" s="1"/>
-      <c r="CO16" s="1"/>
-      <c r="CP16" s="1"/>
-      <c r="CQ16" s="1"/>
-      <c r="CR16" s="1"/>
-      <c r="CS16" s="1"/>
-      <c r="CT16" s="1"/>
-      <c r="CU16" s="1"/>
-      <c r="CV16" s="1"/>
-      <c r="CW16" s="1"/>
-      <c r="CX16" s="1"/>
-      <c r="CY16" s="1"/>
-      <c r="CZ16" s="1"/>
-      <c r="DA16" s="1"/>
-      <c r="DB16" s="1"/>
-      <c r="DC16" s="1"/>
-      <c r="DD16" s="1"/>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -4917,39 +4421,8 @@
       <c r="BY17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
-      <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
-      <c r="CU17" s="1"/>
-      <c r="CV17" s="1"/>
-      <c r="CW17" s="1"/>
-      <c r="CX17" s="1"/>
-      <c r="CY17" s="1"/>
-      <c r="CZ17" s="1"/>
-      <c r="DA17" s="1"/>
-      <c r="DB17" s="1"/>
-      <c r="DC17" s="1"/>
-      <c r="DD17" s="1"/>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -5181,39 +4654,8 @@
       <c r="BY18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ18" s="1"/>
-      <c r="CA18" s="1"/>
-      <c r="CB18" s="1"/>
-      <c r="CC18" s="1"/>
-      <c r="CD18" s="1"/>
-      <c r="CE18" s="1"/>
-      <c r="CF18" s="1"/>
-      <c r="CG18" s="1"/>
-      <c r="CH18" s="1"/>
-      <c r="CI18" s="1"/>
-      <c r="CJ18" s="1"/>
-      <c r="CK18" s="1"/>
-      <c r="CL18" s="1"/>
-      <c r="CM18" s="1"/>
-      <c r="CN18" s="1"/>
-      <c r="CO18" s="1"/>
-      <c r="CP18" s="1"/>
-      <c r="CQ18" s="1"/>
-      <c r="CR18" s="1"/>
-      <c r="CS18" s="1"/>
-      <c r="CT18" s="1"/>
-      <c r="CU18" s="1"/>
-      <c r="CV18" s="1"/>
-      <c r="CW18" s="1"/>
-      <c r="CX18" s="1"/>
-      <c r="CY18" s="1"/>
-      <c r="CZ18" s="1"/>
-      <c r="DA18" s="1"/>
-      <c r="DB18" s="1"/>
-      <c r="DC18" s="1"/>
-      <c r="DD18" s="1"/>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -5445,39 +4887,8 @@
       <c r="BY19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ19" s="1"/>
-      <c r="CA19" s="1"/>
-      <c r="CB19" s="1"/>
-      <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
-      <c r="CF19" s="1"/>
-      <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
-      <c r="CI19" s="1"/>
-      <c r="CJ19" s="1"/>
-      <c r="CK19" s="1"/>
-      <c r="CL19" s="1"/>
-      <c r="CM19" s="1"/>
-      <c r="CN19" s="1"/>
-      <c r="CO19" s="1"/>
-      <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
-      <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
-      <c r="CT19" s="1"/>
-      <c r="CU19" s="1"/>
-      <c r="CV19" s="1"/>
-      <c r="CW19" s="1"/>
-      <c r="CX19" s="1"/>
-      <c r="CY19" s="1"/>
-      <c r="CZ19" s="1"/>
-      <c r="DA19" s="1"/>
-      <c r="DB19" s="1"/>
-      <c r="DC19" s="1"/>
-      <c r="DD19" s="1"/>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -5709,39 +5120,8 @@
       <c r="BY20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ20" s="1"/>
-      <c r="CA20" s="1"/>
-      <c r="CB20" s="1"/>
-      <c r="CC20" s="1"/>
-      <c r="CD20" s="1"/>
-      <c r="CE20" s="1"/>
-      <c r="CF20" s="1"/>
-      <c r="CG20" s="1"/>
-      <c r="CH20" s="1"/>
-      <c r="CI20" s="1"/>
-      <c r="CJ20" s="1"/>
-      <c r="CK20" s="1"/>
-      <c r="CL20" s="1"/>
-      <c r="CM20" s="1"/>
-      <c r="CN20" s="1"/>
-      <c r="CO20" s="1"/>
-      <c r="CP20" s="1"/>
-      <c r="CQ20" s="1"/>
-      <c r="CR20" s="1"/>
-      <c r="CS20" s="1"/>
-      <c r="CT20" s="1"/>
-      <c r="CU20" s="1"/>
-      <c r="CV20" s="1"/>
-      <c r="CW20" s="1"/>
-      <c r="CX20" s="1"/>
-      <c r="CY20" s="1"/>
-      <c r="CZ20" s="1"/>
-      <c r="DA20" s="1"/>
-      <c r="DB20" s="1"/>
-      <c r="DC20" s="1"/>
-      <c r="DD20" s="1"/>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -5973,39 +5353,8 @@
       <c r="BY21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ21" s="1"/>
-      <c r="CA21" s="1"/>
-      <c r="CB21" s="1"/>
-      <c r="CC21" s="1"/>
-      <c r="CD21" s="1"/>
-      <c r="CE21" s="1"/>
-      <c r="CF21" s="1"/>
-      <c r="CG21" s="1"/>
-      <c r="CH21" s="1"/>
-      <c r="CI21" s="1"/>
-      <c r="CJ21" s="1"/>
-      <c r="CK21" s="1"/>
-      <c r="CL21" s="1"/>
-      <c r="CM21" s="1"/>
-      <c r="CN21" s="1"/>
-      <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
-      <c r="CR21" s="1"/>
-      <c r="CS21" s="1"/>
-      <c r="CT21" s="1"/>
-      <c r="CU21" s="1"/>
-      <c r="CV21" s="1"/>
-      <c r="CW21" s="1"/>
-      <c r="CX21" s="1"/>
-      <c r="CY21" s="1"/>
-      <c r="CZ21" s="1"/>
-      <c r="DA21" s="1"/>
-      <c r="DB21" s="1"/>
-      <c r="DC21" s="1"/>
-      <c r="DD21" s="1"/>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -6237,39 +5586,8 @@
       <c r="BY22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ22" s="1"/>
-      <c r="CA22" s="1"/>
-      <c r="CB22" s="1"/>
-      <c r="CC22" s="1"/>
-      <c r="CD22" s="1"/>
-      <c r="CE22" s="1"/>
-      <c r="CF22" s="1"/>
-      <c r="CG22" s="1"/>
-      <c r="CH22" s="1"/>
-      <c r="CI22" s="1"/>
-      <c r="CJ22" s="1"/>
-      <c r="CK22" s="1"/>
-      <c r="CL22" s="1"/>
-      <c r="CM22" s="1"/>
-      <c r="CN22" s="1"/>
-      <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
-      <c r="CR22" s="1"/>
-      <c r="CS22" s="1"/>
-      <c r="CT22" s="1"/>
-      <c r="CU22" s="1"/>
-      <c r="CV22" s="1"/>
-      <c r="CW22" s="1"/>
-      <c r="CX22" s="1"/>
-      <c r="CY22" s="1"/>
-      <c r="CZ22" s="1"/>
-      <c r="DA22" s="1"/>
-      <c r="DB22" s="1"/>
-      <c r="DC22" s="1"/>
-      <c r="DD22" s="1"/>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -6501,39 +5819,8 @@
       <c r="BY23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ23" s="1"/>
-      <c r="CA23" s="1"/>
-      <c r="CB23" s="1"/>
-      <c r="CC23" s="1"/>
-      <c r="CD23" s="1"/>
-      <c r="CE23" s="1"/>
-      <c r="CF23" s="1"/>
-      <c r="CG23" s="1"/>
-      <c r="CH23" s="1"/>
-      <c r="CI23" s="1"/>
-      <c r="CJ23" s="1"/>
-      <c r="CK23" s="1"/>
-      <c r="CL23" s="1"/>
-      <c r="CM23" s="1"/>
-      <c r="CN23" s="1"/>
-      <c r="CO23" s="1"/>
-      <c r="CP23" s="1"/>
-      <c r="CQ23" s="1"/>
-      <c r="CR23" s="1"/>
-      <c r="CS23" s="1"/>
-      <c r="CT23" s="1"/>
-      <c r="CU23" s="1"/>
-      <c r="CV23" s="1"/>
-      <c r="CW23" s="1"/>
-      <c r="CX23" s="1"/>
-      <c r="CY23" s="1"/>
-      <c r="CZ23" s="1"/>
-      <c r="DA23" s="1"/>
-      <c r="DB23" s="1"/>
-      <c r="DC23" s="1"/>
-      <c r="DD23" s="1"/>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -6765,39 +6052,8 @@
       <c r="BY24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ24" s="1"/>
-      <c r="CA24" s="1"/>
-      <c r="CB24" s="1"/>
-      <c r="CC24" s="1"/>
-      <c r="CD24" s="1"/>
-      <c r="CE24" s="1"/>
-      <c r="CF24" s="1"/>
-      <c r="CG24" s="1"/>
-      <c r="CH24" s="1"/>
-      <c r="CI24" s="1"/>
-      <c r="CJ24" s="1"/>
-      <c r="CK24" s="1"/>
-      <c r="CL24" s="1"/>
-      <c r="CM24" s="1"/>
-      <c r="CN24" s="1"/>
-      <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
-      <c r="CR24" s="1"/>
-      <c r="CS24" s="1"/>
-      <c r="CT24" s="1"/>
-      <c r="CU24" s="1"/>
-      <c r="CV24" s="1"/>
-      <c r="CW24" s="1"/>
-      <c r="CX24" s="1"/>
-      <c r="CY24" s="1"/>
-      <c r="CZ24" s="1"/>
-      <c r="DA24" s="1"/>
-      <c r="DB24" s="1"/>
-      <c r="DC24" s="1"/>
-      <c r="DD24" s="1"/>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -7029,39 +6285,8 @@
       <c r="BY25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ25" s="1"/>
-      <c r="CA25" s="1"/>
-      <c r="CB25" s="1"/>
-      <c r="CC25" s="1"/>
-      <c r="CD25" s="1"/>
-      <c r="CE25" s="1"/>
-      <c r="CF25" s="1"/>
-      <c r="CG25" s="1"/>
-      <c r="CH25" s="1"/>
-      <c r="CI25" s="1"/>
-      <c r="CJ25" s="1"/>
-      <c r="CK25" s="1"/>
-      <c r="CL25" s="1"/>
-      <c r="CM25" s="1"/>
-      <c r="CN25" s="1"/>
-      <c r="CO25" s="1"/>
-      <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
-      <c r="CR25" s="1"/>
-      <c r="CS25" s="1"/>
-      <c r="CT25" s="1"/>
-      <c r="CU25" s="1"/>
-      <c r="CV25" s="1"/>
-      <c r="CW25" s="1"/>
-      <c r="CX25" s="1"/>
-      <c r="CY25" s="1"/>
-      <c r="CZ25" s="1"/>
-      <c r="DA25" s="1"/>
-      <c r="DB25" s="1"/>
-      <c r="DC25" s="1"/>
-      <c r="DD25" s="1"/>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -7293,39 +6518,8 @@
       <c r="BY26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ26" s="1"/>
-      <c r="CA26" s="1"/>
-      <c r="CB26" s="1"/>
-      <c r="CC26" s="1"/>
-      <c r="CD26" s="1"/>
-      <c r="CE26" s="1"/>
-      <c r="CF26" s="1"/>
-      <c r="CG26" s="1"/>
-      <c r="CH26" s="1"/>
-      <c r="CI26" s="1"/>
-      <c r="CJ26" s="1"/>
-      <c r="CK26" s="1"/>
-      <c r="CL26" s="1"/>
-      <c r="CM26" s="1"/>
-      <c r="CN26" s="1"/>
-      <c r="CO26" s="1"/>
-      <c r="CP26" s="1"/>
-      <c r="CQ26" s="1"/>
-      <c r="CR26" s="1"/>
-      <c r="CS26" s="1"/>
-      <c r="CT26" s="1"/>
-      <c r="CU26" s="1"/>
-      <c r="CV26" s="1"/>
-      <c r="CW26" s="1"/>
-      <c r="CX26" s="1"/>
-      <c r="CY26" s="1"/>
-      <c r="CZ26" s="1"/>
-      <c r="DA26" s="1"/>
-      <c r="DB26" s="1"/>
-      <c r="DC26" s="1"/>
-      <c r="DD26" s="1"/>
     </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -7557,39 +6751,8 @@
       <c r="BY27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ27" s="1"/>
-      <c r="CA27" s="1"/>
-      <c r="CB27" s="1"/>
-      <c r="CC27" s="1"/>
-      <c r="CD27" s="1"/>
-      <c r="CE27" s="1"/>
-      <c r="CF27" s="1"/>
-      <c r="CG27" s="1"/>
-      <c r="CH27" s="1"/>
-      <c r="CI27" s="1"/>
-      <c r="CJ27" s="1"/>
-      <c r="CK27" s="1"/>
-      <c r="CL27" s="1"/>
-      <c r="CM27" s="1"/>
-      <c r="CN27" s="1"/>
-      <c r="CO27" s="1"/>
-      <c r="CP27" s="1"/>
-      <c r="CQ27" s="1"/>
-      <c r="CR27" s="1"/>
-      <c r="CS27" s="1"/>
-      <c r="CT27" s="1"/>
-      <c r="CU27" s="1"/>
-      <c r="CV27" s="1"/>
-      <c r="CW27" s="1"/>
-      <c r="CX27" s="1"/>
-      <c r="CY27" s="1"/>
-      <c r="CZ27" s="1"/>
-      <c r="DA27" s="1"/>
-      <c r="DB27" s="1"/>
-      <c r="DC27" s="1"/>
-      <c r="DD27" s="1"/>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -7821,39 +6984,8 @@
       <c r="BY28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ28" s="1"/>
-      <c r="CA28" s="1"/>
-      <c r="CB28" s="1"/>
-      <c r="CC28" s="1"/>
-      <c r="CD28" s="1"/>
-      <c r="CE28" s="1"/>
-      <c r="CF28" s="1"/>
-      <c r="CG28" s="1"/>
-      <c r="CH28" s="1"/>
-      <c r="CI28" s="1"/>
-      <c r="CJ28" s="1"/>
-      <c r="CK28" s="1"/>
-      <c r="CL28" s="1"/>
-      <c r="CM28" s="1"/>
-      <c r="CN28" s="1"/>
-      <c r="CO28" s="1"/>
-      <c r="CP28" s="1"/>
-      <c r="CQ28" s="1"/>
-      <c r="CR28" s="1"/>
-      <c r="CS28" s="1"/>
-      <c r="CT28" s="1"/>
-      <c r="CU28" s="1"/>
-      <c r="CV28" s="1"/>
-      <c r="CW28" s="1"/>
-      <c r="CX28" s="1"/>
-      <c r="CY28" s="1"/>
-      <c r="CZ28" s="1"/>
-      <c r="DA28" s="1"/>
-      <c r="DB28" s="1"/>
-      <c r="DC28" s="1"/>
-      <c r="DD28" s="1"/>
     </row>
-    <row r="29" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -8085,39 +7217,8 @@
       <c r="BY29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ29" s="1"/>
-      <c r="CA29" s="1"/>
-      <c r="CB29" s="1"/>
-      <c r="CC29" s="1"/>
-      <c r="CD29" s="1"/>
-      <c r="CE29" s="1"/>
-      <c r="CF29" s="1"/>
-      <c r="CG29" s="1"/>
-      <c r="CH29" s="1"/>
-      <c r="CI29" s="1"/>
-      <c r="CJ29" s="1"/>
-      <c r="CK29" s="1"/>
-      <c r="CL29" s="1"/>
-      <c r="CM29" s="1"/>
-      <c r="CN29" s="1"/>
-      <c r="CO29" s="1"/>
-      <c r="CP29" s="1"/>
-      <c r="CQ29" s="1"/>
-      <c r="CR29" s="1"/>
-      <c r="CS29" s="1"/>
-      <c r="CT29" s="1"/>
-      <c r="CU29" s="1"/>
-      <c r="CV29" s="1"/>
-      <c r="CW29" s="1"/>
-      <c r="CX29" s="1"/>
-      <c r="CY29" s="1"/>
-      <c r="CZ29" s="1"/>
-      <c r="DA29" s="1"/>
-      <c r="DB29" s="1"/>
-      <c r="DC29" s="1"/>
-      <c r="DD29" s="1"/>
     </row>
-    <row r="30" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -8349,39 +7450,8 @@
       <c r="BY30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ30" s="1"/>
-      <c r="CA30" s="1"/>
-      <c r="CB30" s="1"/>
-      <c r="CC30" s="1"/>
-      <c r="CD30" s="1"/>
-      <c r="CE30" s="1"/>
-      <c r="CF30" s="1"/>
-      <c r="CG30" s="1"/>
-      <c r="CH30" s="1"/>
-      <c r="CI30" s="1"/>
-      <c r="CJ30" s="1"/>
-      <c r="CK30" s="1"/>
-      <c r="CL30" s="1"/>
-      <c r="CM30" s="1"/>
-      <c r="CN30" s="1"/>
-      <c r="CO30" s="1"/>
-      <c r="CP30" s="1"/>
-      <c r="CQ30" s="1"/>
-      <c r="CR30" s="1"/>
-      <c r="CS30" s="1"/>
-      <c r="CT30" s="1"/>
-      <c r="CU30" s="1"/>
-      <c r="CV30" s="1"/>
-      <c r="CW30" s="1"/>
-      <c r="CX30" s="1"/>
-      <c r="CY30" s="1"/>
-      <c r="CZ30" s="1"/>
-      <c r="DA30" s="1"/>
-      <c r="DB30" s="1"/>
-      <c r="DC30" s="1"/>
-      <c r="DD30" s="1"/>
     </row>
-    <row r="31" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -8613,39 +7683,8 @@
       <c r="BY31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ31" s="1"/>
-      <c r="CA31" s="1"/>
-      <c r="CB31" s="1"/>
-      <c r="CC31" s="1"/>
-      <c r="CD31" s="1"/>
-      <c r="CE31" s="1"/>
-      <c r="CF31" s="1"/>
-      <c r="CG31" s="1"/>
-      <c r="CH31" s="1"/>
-      <c r="CI31" s="1"/>
-      <c r="CJ31" s="1"/>
-      <c r="CK31" s="1"/>
-      <c r="CL31" s="1"/>
-      <c r="CM31" s="1"/>
-      <c r="CN31" s="1"/>
-      <c r="CO31" s="1"/>
-      <c r="CP31" s="1"/>
-      <c r="CQ31" s="1"/>
-      <c r="CR31" s="1"/>
-      <c r="CS31" s="1"/>
-      <c r="CT31" s="1"/>
-      <c r="CU31" s="1"/>
-      <c r="CV31" s="1"/>
-      <c r="CW31" s="1"/>
-      <c r="CX31" s="1"/>
-      <c r="CY31" s="1"/>
-      <c r="CZ31" s="1"/>
-      <c r="DA31" s="1"/>
-      <c r="DB31" s="1"/>
-      <c r="DC31" s="1"/>
-      <c r="DD31" s="1"/>
     </row>
-    <row r="32" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -8877,39 +7916,8 @@
       <c r="BY32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ32" s="1"/>
-      <c r="CA32" s="1"/>
-      <c r="CB32" s="1"/>
-      <c r="CC32" s="1"/>
-      <c r="CD32" s="1"/>
-      <c r="CE32" s="1"/>
-      <c r="CF32" s="1"/>
-      <c r="CG32" s="1"/>
-      <c r="CH32" s="1"/>
-      <c r="CI32" s="1"/>
-      <c r="CJ32" s="1"/>
-      <c r="CK32" s="1"/>
-      <c r="CL32" s="1"/>
-      <c r="CM32" s="1"/>
-      <c r="CN32" s="1"/>
-      <c r="CO32" s="1"/>
-      <c r="CP32" s="1"/>
-      <c r="CQ32" s="1"/>
-      <c r="CR32" s="1"/>
-      <c r="CS32" s="1"/>
-      <c r="CT32" s="1"/>
-      <c r="CU32" s="1"/>
-      <c r="CV32" s="1"/>
-      <c r="CW32" s="1"/>
-      <c r="CX32" s="1"/>
-      <c r="CY32" s="1"/>
-      <c r="CZ32" s="1"/>
-      <c r="DA32" s="1"/>
-      <c r="DB32" s="1"/>
-      <c r="DC32" s="1"/>
-      <c r="DD32" s="1"/>
     </row>
-    <row r="33" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -9141,39 +8149,8 @@
       <c r="BY33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ33" s="1"/>
-      <c r="CA33" s="1"/>
-      <c r="CB33" s="1"/>
-      <c r="CC33" s="1"/>
-      <c r="CD33" s="1"/>
-      <c r="CE33" s="1"/>
-      <c r="CF33" s="1"/>
-      <c r="CG33" s="1"/>
-      <c r="CH33" s="1"/>
-      <c r="CI33" s="1"/>
-      <c r="CJ33" s="1"/>
-      <c r="CK33" s="1"/>
-      <c r="CL33" s="1"/>
-      <c r="CM33" s="1"/>
-      <c r="CN33" s="1"/>
-      <c r="CO33" s="1"/>
-      <c r="CP33" s="1"/>
-      <c r="CQ33" s="1"/>
-      <c r="CR33" s="1"/>
-      <c r="CS33" s="1"/>
-      <c r="CT33" s="1"/>
-      <c r="CU33" s="1"/>
-      <c r="CV33" s="1"/>
-      <c r="CW33" s="1"/>
-      <c r="CX33" s="1"/>
-      <c r="CY33" s="1"/>
-      <c r="CZ33" s="1"/>
-      <c r="DA33" s="1"/>
-      <c r="DB33" s="1"/>
-      <c r="DC33" s="1"/>
-      <c r="DD33" s="1"/>
     </row>
-    <row r="34" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -9405,39 +8382,8 @@
       <c r="BY34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ34" s="1"/>
-      <c r="CA34" s="1"/>
-      <c r="CB34" s="1"/>
-      <c r="CC34" s="1"/>
-      <c r="CD34" s="1"/>
-      <c r="CE34" s="1"/>
-      <c r="CF34" s="1"/>
-      <c r="CG34" s="1"/>
-      <c r="CH34" s="1"/>
-      <c r="CI34" s="1"/>
-      <c r="CJ34" s="1"/>
-      <c r="CK34" s="1"/>
-      <c r="CL34" s="1"/>
-      <c r="CM34" s="1"/>
-      <c r="CN34" s="1"/>
-      <c r="CO34" s="1"/>
-      <c r="CP34" s="1"/>
-      <c r="CQ34" s="1"/>
-      <c r="CR34" s="1"/>
-      <c r="CS34" s="1"/>
-      <c r="CT34" s="1"/>
-      <c r="CU34" s="1"/>
-      <c r="CV34" s="1"/>
-      <c r="CW34" s="1"/>
-      <c r="CX34" s="1"/>
-      <c r="CY34" s="1"/>
-      <c r="CZ34" s="1"/>
-      <c r="DA34" s="1"/>
-      <c r="DB34" s="1"/>
-      <c r="DC34" s="1"/>
-      <c r="DD34" s="1"/>
     </row>
-    <row r="35" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -9669,39 +8615,8 @@
       <c r="BY35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ35" s="1"/>
-      <c r="CA35" s="1"/>
-      <c r="CB35" s="1"/>
-      <c r="CC35" s="1"/>
-      <c r="CD35" s="1"/>
-      <c r="CE35" s="1"/>
-      <c r="CF35" s="1"/>
-      <c r="CG35" s="1"/>
-      <c r="CH35" s="1"/>
-      <c r="CI35" s="1"/>
-      <c r="CJ35" s="1"/>
-      <c r="CK35" s="1"/>
-      <c r="CL35" s="1"/>
-      <c r="CM35" s="1"/>
-      <c r="CN35" s="1"/>
-      <c r="CO35" s="1"/>
-      <c r="CP35" s="1"/>
-      <c r="CQ35" s="1"/>
-      <c r="CR35" s="1"/>
-      <c r="CS35" s="1"/>
-      <c r="CT35" s="1"/>
-      <c r="CU35" s="1"/>
-      <c r="CV35" s="1"/>
-      <c r="CW35" s="1"/>
-      <c r="CX35" s="1"/>
-      <c r="CY35" s="1"/>
-      <c r="CZ35" s="1"/>
-      <c r="DA35" s="1"/>
-      <c r="DB35" s="1"/>
-      <c r="DC35" s="1"/>
-      <c r="DD35" s="1"/>
     </row>
-    <row r="36" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -9933,39 +8848,8 @@
       <c r="BY36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ36" s="1"/>
-      <c r="CA36" s="1"/>
-      <c r="CB36" s="1"/>
-      <c r="CC36" s="1"/>
-      <c r="CD36" s="1"/>
-      <c r="CE36" s="1"/>
-      <c r="CF36" s="1"/>
-      <c r="CG36" s="1"/>
-      <c r="CH36" s="1"/>
-      <c r="CI36" s="1"/>
-      <c r="CJ36" s="1"/>
-      <c r="CK36" s="1"/>
-      <c r="CL36" s="1"/>
-      <c r="CM36" s="1"/>
-      <c r="CN36" s="1"/>
-      <c r="CO36" s="1"/>
-      <c r="CP36" s="1"/>
-      <c r="CQ36" s="1"/>
-      <c r="CR36" s="1"/>
-      <c r="CS36" s="1"/>
-      <c r="CT36" s="1"/>
-      <c r="CU36" s="1"/>
-      <c r="CV36" s="1"/>
-      <c r="CW36" s="1"/>
-      <c r="CX36" s="1"/>
-      <c r="CY36" s="1"/>
-      <c r="CZ36" s="1"/>
-      <c r="DA36" s="1"/>
-      <c r="DB36" s="1"/>
-      <c r="DC36" s="1"/>
-      <c r="DD36" s="1"/>
     </row>
-    <row r="37" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -10197,39 +9081,8 @@
       <c r="BY37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ37" s="1"/>
-      <c r="CA37" s="1"/>
-      <c r="CB37" s="1"/>
-      <c r="CC37" s="1"/>
-      <c r="CD37" s="1"/>
-      <c r="CE37" s="1"/>
-      <c r="CF37" s="1"/>
-      <c r="CG37" s="1"/>
-      <c r="CH37" s="1"/>
-      <c r="CI37" s="1"/>
-      <c r="CJ37" s="1"/>
-      <c r="CK37" s="1"/>
-      <c r="CL37" s="1"/>
-      <c r="CM37" s="1"/>
-      <c r="CN37" s="1"/>
-      <c r="CO37" s="1"/>
-      <c r="CP37" s="1"/>
-      <c r="CQ37" s="1"/>
-      <c r="CR37" s="1"/>
-      <c r="CS37" s="1"/>
-      <c r="CT37" s="1"/>
-      <c r="CU37" s="1"/>
-      <c r="CV37" s="1"/>
-      <c r="CW37" s="1"/>
-      <c r="CX37" s="1"/>
-      <c r="CY37" s="1"/>
-      <c r="CZ37" s="1"/>
-      <c r="DA37" s="1"/>
-      <c r="DB37" s="1"/>
-      <c r="DC37" s="1"/>
-      <c r="DD37" s="1"/>
     </row>
-    <row r="38" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -10461,39 +9314,8 @@
       <c r="BY38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ38" s="1"/>
-      <c r="CA38" s="1"/>
-      <c r="CB38" s="1"/>
-      <c r="CC38" s="1"/>
-      <c r="CD38" s="1"/>
-      <c r="CE38" s="1"/>
-      <c r="CF38" s="1"/>
-      <c r="CG38" s="1"/>
-      <c r="CH38" s="1"/>
-      <c r="CI38" s="1"/>
-      <c r="CJ38" s="1"/>
-      <c r="CK38" s="1"/>
-      <c r="CL38" s="1"/>
-      <c r="CM38" s="1"/>
-      <c r="CN38" s="1"/>
-      <c r="CO38" s="1"/>
-      <c r="CP38" s="1"/>
-      <c r="CQ38" s="1"/>
-      <c r="CR38" s="1"/>
-      <c r="CS38" s="1"/>
-      <c r="CT38" s="1"/>
-      <c r="CU38" s="1"/>
-      <c r="CV38" s="1"/>
-      <c r="CW38" s="1"/>
-      <c r="CX38" s="1"/>
-      <c r="CY38" s="1"/>
-      <c r="CZ38" s="1"/>
-      <c r="DA38" s="1"/>
-      <c r="DB38" s="1"/>
-      <c r="DC38" s="1"/>
-      <c r="DD38" s="1"/>
     </row>
-    <row r="39" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -10725,39 +9547,8 @@
       <c r="BY39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ39" s="1"/>
-      <c r="CA39" s="1"/>
-      <c r="CB39" s="1"/>
-      <c r="CC39" s="1"/>
-      <c r="CD39" s="1"/>
-      <c r="CE39" s="1"/>
-      <c r="CF39" s="1"/>
-      <c r="CG39" s="1"/>
-      <c r="CH39" s="1"/>
-      <c r="CI39" s="1"/>
-      <c r="CJ39" s="1"/>
-      <c r="CK39" s="1"/>
-      <c r="CL39" s="1"/>
-      <c r="CM39" s="1"/>
-      <c r="CN39" s="1"/>
-      <c r="CO39" s="1"/>
-      <c r="CP39" s="1"/>
-      <c r="CQ39" s="1"/>
-      <c r="CR39" s="1"/>
-      <c r="CS39" s="1"/>
-      <c r="CT39" s="1"/>
-      <c r="CU39" s="1"/>
-      <c r="CV39" s="1"/>
-      <c r="CW39" s="1"/>
-      <c r="CX39" s="1"/>
-      <c r="CY39" s="1"/>
-      <c r="CZ39" s="1"/>
-      <c r="DA39" s="1"/>
-      <c r="DB39" s="1"/>
-      <c r="DC39" s="1"/>
-      <c r="DD39" s="1"/>
     </row>
-    <row r="40" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -10989,39 +9780,8 @@
       <c r="BY40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ40" s="1"/>
-      <c r="CA40" s="1"/>
-      <c r="CB40" s="1"/>
-      <c r="CC40" s="1"/>
-      <c r="CD40" s="1"/>
-      <c r="CE40" s="1"/>
-      <c r="CF40" s="1"/>
-      <c r="CG40" s="1"/>
-      <c r="CH40" s="1"/>
-      <c r="CI40" s="1"/>
-      <c r="CJ40" s="1"/>
-      <c r="CK40" s="1"/>
-      <c r="CL40" s="1"/>
-      <c r="CM40" s="1"/>
-      <c r="CN40" s="1"/>
-      <c r="CO40" s="1"/>
-      <c r="CP40" s="1"/>
-      <c r="CQ40" s="1"/>
-      <c r="CR40" s="1"/>
-      <c r="CS40" s="1"/>
-      <c r="CT40" s="1"/>
-      <c r="CU40" s="1"/>
-      <c r="CV40" s="1"/>
-      <c r="CW40" s="1"/>
-      <c r="CX40" s="1"/>
-      <c r="CY40" s="1"/>
-      <c r="CZ40" s="1"/>
-      <c r="DA40" s="1"/>
-      <c r="DB40" s="1"/>
-      <c r="DC40" s="1"/>
-      <c r="DD40" s="1"/>
     </row>
-    <row r="41" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -11253,39 +10013,8 @@
       <c r="BY41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ41" s="1"/>
-      <c r="CA41" s="1"/>
-      <c r="CB41" s="1"/>
-      <c r="CC41" s="1"/>
-      <c r="CD41" s="1"/>
-      <c r="CE41" s="1"/>
-      <c r="CF41" s="1"/>
-      <c r="CG41" s="1"/>
-      <c r="CH41" s="1"/>
-      <c r="CI41" s="1"/>
-      <c r="CJ41" s="1"/>
-      <c r="CK41" s="1"/>
-      <c r="CL41" s="1"/>
-      <c r="CM41" s="1"/>
-      <c r="CN41" s="1"/>
-      <c r="CO41" s="1"/>
-      <c r="CP41" s="1"/>
-      <c r="CQ41" s="1"/>
-      <c r="CR41" s="1"/>
-      <c r="CS41" s="1"/>
-      <c r="CT41" s="1"/>
-      <c r="CU41" s="1"/>
-      <c r="CV41" s="1"/>
-      <c r="CW41" s="1"/>
-      <c r="CX41" s="1"/>
-      <c r="CY41" s="1"/>
-      <c r="CZ41" s="1"/>
-      <c r="DA41" s="1"/>
-      <c r="DB41" s="1"/>
-      <c r="DC41" s="1"/>
-      <c r="DD41" s="1"/>
     </row>
-    <row r="42" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -11517,39 +10246,8 @@
       <c r="BY42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ42" s="1"/>
-      <c r="CA42" s="1"/>
-      <c r="CB42" s="1"/>
-      <c r="CC42" s="1"/>
-      <c r="CD42" s="1"/>
-      <c r="CE42" s="1"/>
-      <c r="CF42" s="1"/>
-      <c r="CG42" s="1"/>
-      <c r="CH42" s="1"/>
-      <c r="CI42" s="1"/>
-      <c r="CJ42" s="1"/>
-      <c r="CK42" s="1"/>
-      <c r="CL42" s="1"/>
-      <c r="CM42" s="1"/>
-      <c r="CN42" s="1"/>
-      <c r="CO42" s="1"/>
-      <c r="CP42" s="1"/>
-      <c r="CQ42" s="1"/>
-      <c r="CR42" s="1"/>
-      <c r="CS42" s="1"/>
-      <c r="CT42" s="1"/>
-      <c r="CU42" s="1"/>
-      <c r="CV42" s="1"/>
-      <c r="CW42" s="1"/>
-      <c r="CX42" s="1"/>
-      <c r="CY42" s="1"/>
-      <c r="CZ42" s="1"/>
-      <c r="DA42" s="1"/>
-      <c r="DB42" s="1"/>
-      <c r="DC42" s="1"/>
-      <c r="DD42" s="1"/>
     </row>
-    <row r="43" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -11781,39 +10479,8 @@
       <c r="BY43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ43" s="1"/>
-      <c r="CA43" s="1"/>
-      <c r="CB43" s="1"/>
-      <c r="CC43" s="1"/>
-      <c r="CD43" s="1"/>
-      <c r="CE43" s="1"/>
-      <c r="CF43" s="1"/>
-      <c r="CG43" s="1"/>
-      <c r="CH43" s="1"/>
-      <c r="CI43" s="1"/>
-      <c r="CJ43" s="1"/>
-      <c r="CK43" s="1"/>
-      <c r="CL43" s="1"/>
-      <c r="CM43" s="1"/>
-      <c r="CN43" s="1"/>
-      <c r="CO43" s="1"/>
-      <c r="CP43" s="1"/>
-      <c r="CQ43" s="1"/>
-      <c r="CR43" s="1"/>
-      <c r="CS43" s="1"/>
-      <c r="CT43" s="1"/>
-      <c r="CU43" s="1"/>
-      <c r="CV43" s="1"/>
-      <c r="CW43" s="1"/>
-      <c r="CX43" s="1"/>
-      <c r="CY43" s="1"/>
-      <c r="CZ43" s="1"/>
-      <c r="DA43" s="1"/>
-      <c r="DB43" s="1"/>
-      <c r="DC43" s="1"/>
-      <c r="DD43" s="1"/>
     </row>
-    <row r="44" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -12045,39 +10712,8 @@
       <c r="BY44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ44" s="1"/>
-      <c r="CA44" s="1"/>
-      <c r="CB44" s="1"/>
-      <c r="CC44" s="1"/>
-      <c r="CD44" s="1"/>
-      <c r="CE44" s="1"/>
-      <c r="CF44" s="1"/>
-      <c r="CG44" s="1"/>
-      <c r="CH44" s="1"/>
-      <c r="CI44" s="1"/>
-      <c r="CJ44" s="1"/>
-      <c r="CK44" s="1"/>
-      <c r="CL44" s="1"/>
-      <c r="CM44" s="1"/>
-      <c r="CN44" s="1"/>
-      <c r="CO44" s="1"/>
-      <c r="CP44" s="1"/>
-      <c r="CQ44" s="1"/>
-      <c r="CR44" s="1"/>
-      <c r="CS44" s="1"/>
-      <c r="CT44" s="1"/>
-      <c r="CU44" s="1"/>
-      <c r="CV44" s="1"/>
-      <c r="CW44" s="1"/>
-      <c r="CX44" s="1"/>
-      <c r="CY44" s="1"/>
-      <c r="CZ44" s="1"/>
-      <c r="DA44" s="1"/>
-      <c r="DB44" s="1"/>
-      <c r="DC44" s="1"/>
-      <c r="DD44" s="1"/>
     </row>
-    <row r="45" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -12309,39 +10945,8 @@
       <c r="BY45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ45" s="1"/>
-      <c r="CA45" s="1"/>
-      <c r="CB45" s="1"/>
-      <c r="CC45" s="1"/>
-      <c r="CD45" s="1"/>
-      <c r="CE45" s="1"/>
-      <c r="CF45" s="1"/>
-      <c r="CG45" s="1"/>
-      <c r="CH45" s="1"/>
-      <c r="CI45" s="1"/>
-      <c r="CJ45" s="1"/>
-      <c r="CK45" s="1"/>
-      <c r="CL45" s="1"/>
-      <c r="CM45" s="1"/>
-      <c r="CN45" s="1"/>
-      <c r="CO45" s="1"/>
-      <c r="CP45" s="1"/>
-      <c r="CQ45" s="1"/>
-      <c r="CR45" s="1"/>
-      <c r="CS45" s="1"/>
-      <c r="CT45" s="1"/>
-      <c r="CU45" s="1"/>
-      <c r="CV45" s="1"/>
-      <c r="CW45" s="1"/>
-      <c r="CX45" s="1"/>
-      <c r="CY45" s="1"/>
-      <c r="CZ45" s="1"/>
-      <c r="DA45" s="1"/>
-      <c r="DB45" s="1"/>
-      <c r="DC45" s="1"/>
-      <c r="DD45" s="1"/>
     </row>
-    <row r="46" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -12573,39 +11178,8 @@
       <c r="BY46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ46" s="1"/>
-      <c r="CA46" s="1"/>
-      <c r="CB46" s="1"/>
-      <c r="CC46" s="1"/>
-      <c r="CD46" s="1"/>
-      <c r="CE46" s="1"/>
-      <c r="CF46" s="1"/>
-      <c r="CG46" s="1"/>
-      <c r="CH46" s="1"/>
-      <c r="CI46" s="1"/>
-      <c r="CJ46" s="1"/>
-      <c r="CK46" s="1"/>
-      <c r="CL46" s="1"/>
-      <c r="CM46" s="1"/>
-      <c r="CN46" s="1"/>
-      <c r="CO46" s="1"/>
-      <c r="CP46" s="1"/>
-      <c r="CQ46" s="1"/>
-      <c r="CR46" s="1"/>
-      <c r="CS46" s="1"/>
-      <c r="CT46" s="1"/>
-      <c r="CU46" s="1"/>
-      <c r="CV46" s="1"/>
-      <c r="CW46" s="1"/>
-      <c r="CX46" s="1"/>
-      <c r="CY46" s="1"/>
-      <c r="CZ46" s="1"/>
-      <c r="DA46" s="1"/>
-      <c r="DB46" s="1"/>
-      <c r="DC46" s="1"/>
-      <c r="DD46" s="1"/>
     </row>
-    <row r="47" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -12837,39 +11411,8 @@
       <c r="BY47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ47" s="1"/>
-      <c r="CA47" s="1"/>
-      <c r="CB47" s="1"/>
-      <c r="CC47" s="1"/>
-      <c r="CD47" s="1"/>
-      <c r="CE47" s="1"/>
-      <c r="CF47" s="1"/>
-      <c r="CG47" s="1"/>
-      <c r="CH47" s="1"/>
-      <c r="CI47" s="1"/>
-      <c r="CJ47" s="1"/>
-      <c r="CK47" s="1"/>
-      <c r="CL47" s="1"/>
-      <c r="CM47" s="1"/>
-      <c r="CN47" s="1"/>
-      <c r="CO47" s="1"/>
-      <c r="CP47" s="1"/>
-      <c r="CQ47" s="1"/>
-      <c r="CR47" s="1"/>
-      <c r="CS47" s="1"/>
-      <c r="CT47" s="1"/>
-      <c r="CU47" s="1"/>
-      <c r="CV47" s="1"/>
-      <c r="CW47" s="1"/>
-      <c r="CX47" s="1"/>
-      <c r="CY47" s="1"/>
-      <c r="CZ47" s="1"/>
-      <c r="DA47" s="1"/>
-      <c r="DB47" s="1"/>
-      <c r="DC47" s="1"/>
-      <c r="DD47" s="1"/>
     </row>
-    <row r="48" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -13101,39 +11644,8 @@
       <c r="BY48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ48" s="1"/>
-      <c r="CA48" s="1"/>
-      <c r="CB48" s="1"/>
-      <c r="CC48" s="1"/>
-      <c r="CD48" s="1"/>
-      <c r="CE48" s="1"/>
-      <c r="CF48" s="1"/>
-      <c r="CG48" s="1"/>
-      <c r="CH48" s="1"/>
-      <c r="CI48" s="1"/>
-      <c r="CJ48" s="1"/>
-      <c r="CK48" s="1"/>
-      <c r="CL48" s="1"/>
-      <c r="CM48" s="1"/>
-      <c r="CN48" s="1"/>
-      <c r="CO48" s="1"/>
-      <c r="CP48" s="1"/>
-      <c r="CQ48" s="1"/>
-      <c r="CR48" s="1"/>
-      <c r="CS48" s="1"/>
-      <c r="CT48" s="1"/>
-      <c r="CU48" s="1"/>
-      <c r="CV48" s="1"/>
-      <c r="CW48" s="1"/>
-      <c r="CX48" s="1"/>
-      <c r="CY48" s="1"/>
-      <c r="CZ48" s="1"/>
-      <c r="DA48" s="1"/>
-      <c r="DB48" s="1"/>
-      <c r="DC48" s="1"/>
-      <c r="DD48" s="1"/>
     </row>
-    <row r="49" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -13365,39 +11877,8 @@
       <c r="BY49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ49" s="1"/>
-      <c r="CA49" s="1"/>
-      <c r="CB49" s="1"/>
-      <c r="CC49" s="1"/>
-      <c r="CD49" s="1"/>
-      <c r="CE49" s="1"/>
-      <c r="CF49" s="1"/>
-      <c r="CG49" s="1"/>
-      <c r="CH49" s="1"/>
-      <c r="CI49" s="1"/>
-      <c r="CJ49" s="1"/>
-      <c r="CK49" s="1"/>
-      <c r="CL49" s="1"/>
-      <c r="CM49" s="1"/>
-      <c r="CN49" s="1"/>
-      <c r="CO49" s="1"/>
-      <c r="CP49" s="1"/>
-      <c r="CQ49" s="1"/>
-      <c r="CR49" s="1"/>
-      <c r="CS49" s="1"/>
-      <c r="CT49" s="1"/>
-      <c r="CU49" s="1"/>
-      <c r="CV49" s="1"/>
-      <c r="CW49" s="1"/>
-      <c r="CX49" s="1"/>
-      <c r="CY49" s="1"/>
-      <c r="CZ49" s="1"/>
-      <c r="DA49" s="1"/>
-      <c r="DB49" s="1"/>
-      <c r="DC49" s="1"/>
-      <c r="DD49" s="1"/>
     </row>
-    <row r="50" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -13629,39 +12110,8 @@
       <c r="BY50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ50" s="1"/>
-      <c r="CA50" s="1"/>
-      <c r="CB50" s="1"/>
-      <c r="CC50" s="1"/>
-      <c r="CD50" s="1"/>
-      <c r="CE50" s="1"/>
-      <c r="CF50" s="1"/>
-      <c r="CG50" s="1"/>
-      <c r="CH50" s="1"/>
-      <c r="CI50" s="1"/>
-      <c r="CJ50" s="1"/>
-      <c r="CK50" s="1"/>
-      <c r="CL50" s="1"/>
-      <c r="CM50" s="1"/>
-      <c r="CN50" s="1"/>
-      <c r="CO50" s="1"/>
-      <c r="CP50" s="1"/>
-      <c r="CQ50" s="1"/>
-      <c r="CR50" s="1"/>
-      <c r="CS50" s="1"/>
-      <c r="CT50" s="1"/>
-      <c r="CU50" s="1"/>
-      <c r="CV50" s="1"/>
-      <c r="CW50" s="1"/>
-      <c r="CX50" s="1"/>
-      <c r="CY50" s="1"/>
-      <c r="CZ50" s="1"/>
-      <c r="DA50" s="1"/>
-      <c r="DB50" s="1"/>
-      <c r="DC50" s="1"/>
-      <c r="DD50" s="1"/>
     </row>
-    <row r="51" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -13893,39 +12343,8 @@
       <c r="BY51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ51" s="1"/>
-      <c r="CA51" s="1"/>
-      <c r="CB51" s="1"/>
-      <c r="CC51" s="1"/>
-      <c r="CD51" s="1"/>
-      <c r="CE51" s="1"/>
-      <c r="CF51" s="1"/>
-      <c r="CG51" s="1"/>
-      <c r="CH51" s="1"/>
-      <c r="CI51" s="1"/>
-      <c r="CJ51" s="1"/>
-      <c r="CK51" s="1"/>
-      <c r="CL51" s="1"/>
-      <c r="CM51" s="1"/>
-      <c r="CN51" s="1"/>
-      <c r="CO51" s="1"/>
-      <c r="CP51" s="1"/>
-      <c r="CQ51" s="1"/>
-      <c r="CR51" s="1"/>
-      <c r="CS51" s="1"/>
-      <c r="CT51" s="1"/>
-      <c r="CU51" s="1"/>
-      <c r="CV51" s="1"/>
-      <c r="CW51" s="1"/>
-      <c r="CX51" s="1"/>
-      <c r="CY51" s="1"/>
-      <c r="CZ51" s="1"/>
-      <c r="DA51" s="1"/>
-      <c r="DB51" s="1"/>
-      <c r="DC51" s="1"/>
-      <c r="DD51" s="1"/>
     </row>
-    <row r="52" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -14157,39 +12576,8 @@
       <c r="BY52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ52" s="1"/>
-      <c r="CA52" s="1"/>
-      <c r="CB52" s="1"/>
-      <c r="CC52" s="1"/>
-      <c r="CD52" s="1"/>
-      <c r="CE52" s="1"/>
-      <c r="CF52" s="1"/>
-      <c r="CG52" s="1"/>
-      <c r="CH52" s="1"/>
-      <c r="CI52" s="1"/>
-      <c r="CJ52" s="1"/>
-      <c r="CK52" s="1"/>
-      <c r="CL52" s="1"/>
-      <c r="CM52" s="1"/>
-      <c r="CN52" s="1"/>
-      <c r="CO52" s="1"/>
-      <c r="CP52" s="1"/>
-      <c r="CQ52" s="1"/>
-      <c r="CR52" s="1"/>
-      <c r="CS52" s="1"/>
-      <c r="CT52" s="1"/>
-      <c r="CU52" s="1"/>
-      <c r="CV52" s="1"/>
-      <c r="CW52" s="1"/>
-      <c r="CX52" s="1"/>
-      <c r="CY52" s="1"/>
-      <c r="CZ52" s="1"/>
-      <c r="DA52" s="1"/>
-      <c r="DB52" s="1"/>
-      <c r="DC52" s="1"/>
-      <c r="DD52" s="1"/>
     </row>
-    <row r="53" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -14421,39 +12809,8 @@
       <c r="BY53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ53" s="1"/>
-      <c r="CA53" s="1"/>
-      <c r="CB53" s="1"/>
-      <c r="CC53" s="1"/>
-      <c r="CD53" s="1"/>
-      <c r="CE53" s="1"/>
-      <c r="CF53" s="1"/>
-      <c r="CG53" s="1"/>
-      <c r="CH53" s="1"/>
-      <c r="CI53" s="1"/>
-      <c r="CJ53" s="1"/>
-      <c r="CK53" s="1"/>
-      <c r="CL53" s="1"/>
-      <c r="CM53" s="1"/>
-      <c r="CN53" s="1"/>
-      <c r="CO53" s="1"/>
-      <c r="CP53" s="1"/>
-      <c r="CQ53" s="1"/>
-      <c r="CR53" s="1"/>
-      <c r="CS53" s="1"/>
-      <c r="CT53" s="1"/>
-      <c r="CU53" s="1"/>
-      <c r="CV53" s="1"/>
-      <c r="CW53" s="1"/>
-      <c r="CX53" s="1"/>
-      <c r="CY53" s="1"/>
-      <c r="CZ53" s="1"/>
-      <c r="DA53" s="1"/>
-      <c r="DB53" s="1"/>
-      <c r="DC53" s="1"/>
-      <c r="DD53" s="1"/>
     </row>
-    <row r="54" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -14685,39 +13042,8 @@
       <c r="BY54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ54" s="1"/>
-      <c r="CA54" s="1"/>
-      <c r="CB54" s="1"/>
-      <c r="CC54" s="1"/>
-      <c r="CD54" s="1"/>
-      <c r="CE54" s="1"/>
-      <c r="CF54" s="1"/>
-      <c r="CG54" s="1"/>
-      <c r="CH54" s="1"/>
-      <c r="CI54" s="1"/>
-      <c r="CJ54" s="1"/>
-      <c r="CK54" s="1"/>
-      <c r="CL54" s="1"/>
-      <c r="CM54" s="1"/>
-      <c r="CN54" s="1"/>
-      <c r="CO54" s="1"/>
-      <c r="CP54" s="1"/>
-      <c r="CQ54" s="1"/>
-      <c r="CR54" s="1"/>
-      <c r="CS54" s="1"/>
-      <c r="CT54" s="1"/>
-      <c r="CU54" s="1"/>
-      <c r="CV54" s="1"/>
-      <c r="CW54" s="1"/>
-      <c r="CX54" s="1"/>
-      <c r="CY54" s="1"/>
-      <c r="CZ54" s="1"/>
-      <c r="DA54" s="1"/>
-      <c r="DB54" s="1"/>
-      <c r="DC54" s="1"/>
-      <c r="DD54" s="1"/>
     </row>
-    <row r="55" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -14949,39 +13275,8 @@
       <c r="BY55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ55" s="1"/>
-      <c r="CA55" s="1"/>
-      <c r="CB55" s="1"/>
-      <c r="CC55" s="1"/>
-      <c r="CD55" s="1"/>
-      <c r="CE55" s="1"/>
-      <c r="CF55" s="1"/>
-      <c r="CG55" s="1"/>
-      <c r="CH55" s="1"/>
-      <c r="CI55" s="1"/>
-      <c r="CJ55" s="1"/>
-      <c r="CK55" s="1"/>
-      <c r="CL55" s="1"/>
-      <c r="CM55" s="1"/>
-      <c r="CN55" s="1"/>
-      <c r="CO55" s="1"/>
-      <c r="CP55" s="1"/>
-      <c r="CQ55" s="1"/>
-      <c r="CR55" s="1"/>
-      <c r="CS55" s="1"/>
-      <c r="CT55" s="1"/>
-      <c r="CU55" s="1"/>
-      <c r="CV55" s="1"/>
-      <c r="CW55" s="1"/>
-      <c r="CX55" s="1"/>
-      <c r="CY55" s="1"/>
-      <c r="CZ55" s="1"/>
-      <c r="DA55" s="1"/>
-      <c r="DB55" s="1"/>
-      <c r="DC55" s="1"/>
-      <c r="DD55" s="1"/>
     </row>
-    <row r="56" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -15213,39 +13508,8 @@
       <c r="BY56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ56" s="1"/>
-      <c r="CA56" s="1"/>
-      <c r="CB56" s="1"/>
-      <c r="CC56" s="1"/>
-      <c r="CD56" s="1"/>
-      <c r="CE56" s="1"/>
-      <c r="CF56" s="1"/>
-      <c r="CG56" s="1"/>
-      <c r="CH56" s="1"/>
-      <c r="CI56" s="1"/>
-      <c r="CJ56" s="1"/>
-      <c r="CK56" s="1"/>
-      <c r="CL56" s="1"/>
-      <c r="CM56" s="1"/>
-      <c r="CN56" s="1"/>
-      <c r="CO56" s="1"/>
-      <c r="CP56" s="1"/>
-      <c r="CQ56" s="1"/>
-      <c r="CR56" s="1"/>
-      <c r="CS56" s="1"/>
-      <c r="CT56" s="1"/>
-      <c r="CU56" s="1"/>
-      <c r="CV56" s="1"/>
-      <c r="CW56" s="1"/>
-      <c r="CX56" s="1"/>
-      <c r="CY56" s="1"/>
-      <c r="CZ56" s="1"/>
-      <c r="DA56" s="1"/>
-      <c r="DB56" s="1"/>
-      <c r="DC56" s="1"/>
-      <c r="DD56" s="1"/>
     </row>
-    <row r="57" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -15477,39 +13741,8 @@
       <c r="BY57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ57" s="1"/>
-      <c r="CA57" s="1"/>
-      <c r="CB57" s="1"/>
-      <c r="CC57" s="1"/>
-      <c r="CD57" s="1"/>
-      <c r="CE57" s="1"/>
-      <c r="CF57" s="1"/>
-      <c r="CG57" s="1"/>
-      <c r="CH57" s="1"/>
-      <c r="CI57" s="1"/>
-      <c r="CJ57" s="1"/>
-      <c r="CK57" s="1"/>
-      <c r="CL57" s="1"/>
-      <c r="CM57" s="1"/>
-      <c r="CN57" s="1"/>
-      <c r="CO57" s="1"/>
-      <c r="CP57" s="1"/>
-      <c r="CQ57" s="1"/>
-      <c r="CR57" s="1"/>
-      <c r="CS57" s="1"/>
-      <c r="CT57" s="1"/>
-      <c r="CU57" s="1"/>
-      <c r="CV57" s="1"/>
-      <c r="CW57" s="1"/>
-      <c r="CX57" s="1"/>
-      <c r="CY57" s="1"/>
-      <c r="CZ57" s="1"/>
-      <c r="DA57" s="1"/>
-      <c r="DB57" s="1"/>
-      <c r="DC57" s="1"/>
-      <c r="DD57" s="1"/>
     </row>
-    <row r="58" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -15741,39 +13974,8 @@
       <c r="BY58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ58" s="1"/>
-      <c r="CA58" s="1"/>
-      <c r="CB58" s="1"/>
-      <c r="CC58" s="1"/>
-      <c r="CD58" s="1"/>
-      <c r="CE58" s="1"/>
-      <c r="CF58" s="1"/>
-      <c r="CG58" s="1"/>
-      <c r="CH58" s="1"/>
-      <c r="CI58" s="1"/>
-      <c r="CJ58" s="1"/>
-      <c r="CK58" s="1"/>
-      <c r="CL58" s="1"/>
-      <c r="CM58" s="1"/>
-      <c r="CN58" s="1"/>
-      <c r="CO58" s="1"/>
-      <c r="CP58" s="1"/>
-      <c r="CQ58" s="1"/>
-      <c r="CR58" s="1"/>
-      <c r="CS58" s="1"/>
-      <c r="CT58" s="1"/>
-      <c r="CU58" s="1"/>
-      <c r="CV58" s="1"/>
-      <c r="CW58" s="1"/>
-      <c r="CX58" s="1"/>
-      <c r="CY58" s="1"/>
-      <c r="CZ58" s="1"/>
-      <c r="DA58" s="1"/>
-      <c r="DB58" s="1"/>
-      <c r="DC58" s="1"/>
-      <c r="DD58" s="1"/>
     </row>
-    <row r="59" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -16005,39 +14207,8 @@
       <c r="BY59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ59" s="1"/>
-      <c r="CA59" s="1"/>
-      <c r="CB59" s="1"/>
-      <c r="CC59" s="1"/>
-      <c r="CD59" s="1"/>
-      <c r="CE59" s="1"/>
-      <c r="CF59" s="1"/>
-      <c r="CG59" s="1"/>
-      <c r="CH59" s="1"/>
-      <c r="CI59" s="1"/>
-      <c r="CJ59" s="1"/>
-      <c r="CK59" s="1"/>
-      <c r="CL59" s="1"/>
-      <c r="CM59" s="1"/>
-      <c r="CN59" s="1"/>
-      <c r="CO59" s="1"/>
-      <c r="CP59" s="1"/>
-      <c r="CQ59" s="1"/>
-      <c r="CR59" s="1"/>
-      <c r="CS59" s="1"/>
-      <c r="CT59" s="1"/>
-      <c r="CU59" s="1"/>
-      <c r="CV59" s="1"/>
-      <c r="CW59" s="1"/>
-      <c r="CX59" s="1"/>
-      <c r="CY59" s="1"/>
-      <c r="CZ59" s="1"/>
-      <c r="DA59" s="1"/>
-      <c r="DB59" s="1"/>
-      <c r="DC59" s="1"/>
-      <c r="DD59" s="1"/>
     </row>
-    <row r="60" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -16269,39 +14440,8 @@
       <c r="BY60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ60" s="1"/>
-      <c r="CA60" s="1"/>
-      <c r="CB60" s="1"/>
-      <c r="CC60" s="1"/>
-      <c r="CD60" s="1"/>
-      <c r="CE60" s="1"/>
-      <c r="CF60" s="1"/>
-      <c r="CG60" s="1"/>
-      <c r="CH60" s="1"/>
-      <c r="CI60" s="1"/>
-      <c r="CJ60" s="1"/>
-      <c r="CK60" s="1"/>
-      <c r="CL60" s="1"/>
-      <c r="CM60" s="1"/>
-      <c r="CN60" s="1"/>
-      <c r="CO60" s="1"/>
-      <c r="CP60" s="1"/>
-      <c r="CQ60" s="1"/>
-      <c r="CR60" s="1"/>
-      <c r="CS60" s="1"/>
-      <c r="CT60" s="1"/>
-      <c r="CU60" s="1"/>
-      <c r="CV60" s="1"/>
-      <c r="CW60" s="1"/>
-      <c r="CX60" s="1"/>
-      <c r="CY60" s="1"/>
-      <c r="CZ60" s="1"/>
-      <c r="DA60" s="1"/>
-      <c r="DB60" s="1"/>
-      <c r="DC60" s="1"/>
-      <c r="DD60" s="1"/>
     </row>
-    <row r="61" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -16533,39 +14673,8 @@
       <c r="BY61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ61" s="1"/>
-      <c r="CA61" s="1"/>
-      <c r="CB61" s="1"/>
-      <c r="CC61" s="1"/>
-      <c r="CD61" s="1"/>
-      <c r="CE61" s="1"/>
-      <c r="CF61" s="1"/>
-      <c r="CG61" s="1"/>
-      <c r="CH61" s="1"/>
-      <c r="CI61" s="1"/>
-      <c r="CJ61" s="1"/>
-      <c r="CK61" s="1"/>
-      <c r="CL61" s="1"/>
-      <c r="CM61" s="1"/>
-      <c r="CN61" s="1"/>
-      <c r="CO61" s="1"/>
-      <c r="CP61" s="1"/>
-      <c r="CQ61" s="1"/>
-      <c r="CR61" s="1"/>
-      <c r="CS61" s="1"/>
-      <c r="CT61" s="1"/>
-      <c r="CU61" s="1"/>
-      <c r="CV61" s="1"/>
-      <c r="CW61" s="1"/>
-      <c r="CX61" s="1"/>
-      <c r="CY61" s="1"/>
-      <c r="CZ61" s="1"/>
-      <c r="DA61" s="1"/>
-      <c r="DB61" s="1"/>
-      <c r="DC61" s="1"/>
-      <c r="DD61" s="1"/>
     </row>
-    <row r="62" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -16797,39 +14906,8 @@
       <c r="BY62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ62" s="1"/>
-      <c r="CA62" s="1"/>
-      <c r="CB62" s="1"/>
-      <c r="CC62" s="1"/>
-      <c r="CD62" s="1"/>
-      <c r="CE62" s="1"/>
-      <c r="CF62" s="1"/>
-      <c r="CG62" s="1"/>
-      <c r="CH62" s="1"/>
-      <c r="CI62" s="1"/>
-      <c r="CJ62" s="1"/>
-      <c r="CK62" s="1"/>
-      <c r="CL62" s="1"/>
-      <c r="CM62" s="1"/>
-      <c r="CN62" s="1"/>
-      <c r="CO62" s="1"/>
-      <c r="CP62" s="1"/>
-      <c r="CQ62" s="1"/>
-      <c r="CR62" s="1"/>
-      <c r="CS62" s="1"/>
-      <c r="CT62" s="1"/>
-      <c r="CU62" s="1"/>
-      <c r="CV62" s="1"/>
-      <c r="CW62" s="1"/>
-      <c r="CX62" s="1"/>
-      <c r="CY62" s="1"/>
-      <c r="CZ62" s="1"/>
-      <c r="DA62" s="1"/>
-      <c r="DB62" s="1"/>
-      <c r="DC62" s="1"/>
-      <c r="DD62" s="1"/>
     </row>
-    <row r="63" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -17061,39 +15139,8 @@
       <c r="BY63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ63" s="1"/>
-      <c r="CA63" s="1"/>
-      <c r="CB63" s="1"/>
-      <c r="CC63" s="1"/>
-      <c r="CD63" s="1"/>
-      <c r="CE63" s="1"/>
-      <c r="CF63" s="1"/>
-      <c r="CG63" s="1"/>
-      <c r="CH63" s="1"/>
-      <c r="CI63" s="1"/>
-      <c r="CJ63" s="1"/>
-      <c r="CK63" s="1"/>
-      <c r="CL63" s="1"/>
-      <c r="CM63" s="1"/>
-      <c r="CN63" s="1"/>
-      <c r="CO63" s="1"/>
-      <c r="CP63" s="1"/>
-      <c r="CQ63" s="1"/>
-      <c r="CR63" s="1"/>
-      <c r="CS63" s="1"/>
-      <c r="CT63" s="1"/>
-      <c r="CU63" s="1"/>
-      <c r="CV63" s="1"/>
-      <c r="CW63" s="1"/>
-      <c r="CX63" s="1"/>
-      <c r="CY63" s="1"/>
-      <c r="CZ63" s="1"/>
-      <c r="DA63" s="1"/>
-      <c r="DB63" s="1"/>
-      <c r="DC63" s="1"/>
-      <c r="DD63" s="1"/>
     </row>
-    <row r="64" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -17325,39 +15372,8 @@
       <c r="BY64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ64" s="1"/>
-      <c r="CA64" s="1"/>
-      <c r="CB64" s="1"/>
-      <c r="CC64" s="1"/>
-      <c r="CD64" s="1"/>
-      <c r="CE64" s="1"/>
-      <c r="CF64" s="1"/>
-      <c r="CG64" s="1"/>
-      <c r="CH64" s="1"/>
-      <c r="CI64" s="1"/>
-      <c r="CJ64" s="1"/>
-      <c r="CK64" s="1"/>
-      <c r="CL64" s="1"/>
-      <c r="CM64" s="1"/>
-      <c r="CN64" s="1"/>
-      <c r="CO64" s="1"/>
-      <c r="CP64" s="1"/>
-      <c r="CQ64" s="1"/>
-      <c r="CR64" s="1"/>
-      <c r="CS64" s="1"/>
-      <c r="CT64" s="1"/>
-      <c r="CU64" s="1"/>
-      <c r="CV64" s="1"/>
-      <c r="CW64" s="1"/>
-      <c r="CX64" s="1"/>
-      <c r="CY64" s="1"/>
-      <c r="CZ64" s="1"/>
-      <c r="DA64" s="1"/>
-      <c r="DB64" s="1"/>
-      <c r="DC64" s="1"/>
-      <c r="DD64" s="1"/>
     </row>
-    <row r="65" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -17589,39 +15605,8 @@
       <c r="BY65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ65" s="1"/>
-      <c r="CA65" s="1"/>
-      <c r="CB65" s="1"/>
-      <c r="CC65" s="1"/>
-      <c r="CD65" s="1"/>
-      <c r="CE65" s="1"/>
-      <c r="CF65" s="1"/>
-      <c r="CG65" s="1"/>
-      <c r="CH65" s="1"/>
-      <c r="CI65" s="1"/>
-      <c r="CJ65" s="1"/>
-      <c r="CK65" s="1"/>
-      <c r="CL65" s="1"/>
-      <c r="CM65" s="1"/>
-      <c r="CN65" s="1"/>
-      <c r="CO65" s="1"/>
-      <c r="CP65" s="1"/>
-      <c r="CQ65" s="1"/>
-      <c r="CR65" s="1"/>
-      <c r="CS65" s="1"/>
-      <c r="CT65" s="1"/>
-      <c r="CU65" s="1"/>
-      <c r="CV65" s="1"/>
-      <c r="CW65" s="1"/>
-      <c r="CX65" s="1"/>
-      <c r="CY65" s="1"/>
-      <c r="CZ65" s="1"/>
-      <c r="DA65" s="1"/>
-      <c r="DB65" s="1"/>
-      <c r="DC65" s="1"/>
-      <c r="DD65" s="1"/>
     </row>
-    <row r="66" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -17853,39 +15838,8 @@
       <c r="BY66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ66" s="1"/>
-      <c r="CA66" s="1"/>
-      <c r="CB66" s="1"/>
-      <c r="CC66" s="1"/>
-      <c r="CD66" s="1"/>
-      <c r="CE66" s="1"/>
-      <c r="CF66" s="1"/>
-      <c r="CG66" s="1"/>
-      <c r="CH66" s="1"/>
-      <c r="CI66" s="1"/>
-      <c r="CJ66" s="1"/>
-      <c r="CK66" s="1"/>
-      <c r="CL66" s="1"/>
-      <c r="CM66" s="1"/>
-      <c r="CN66" s="1"/>
-      <c r="CO66" s="1"/>
-      <c r="CP66" s="1"/>
-      <c r="CQ66" s="1"/>
-      <c r="CR66" s="1"/>
-      <c r="CS66" s="1"/>
-      <c r="CT66" s="1"/>
-      <c r="CU66" s="1"/>
-      <c r="CV66" s="1"/>
-      <c r="CW66" s="1"/>
-      <c r="CX66" s="1"/>
-      <c r="CY66" s="1"/>
-      <c r="CZ66" s="1"/>
-      <c r="DA66" s="1"/>
-      <c r="DB66" s="1"/>
-      <c r="DC66" s="1"/>
-      <c r="DD66" s="1"/>
     </row>
-    <row r="67" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -18117,39 +16071,8 @@
       <c r="BY67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ67" s="1"/>
-      <c r="CA67" s="1"/>
-      <c r="CB67" s="1"/>
-      <c r="CC67" s="1"/>
-      <c r="CD67" s="1"/>
-      <c r="CE67" s="1"/>
-      <c r="CF67" s="1"/>
-      <c r="CG67" s="1"/>
-      <c r="CH67" s="1"/>
-      <c r="CI67" s="1"/>
-      <c r="CJ67" s="1"/>
-      <c r="CK67" s="1"/>
-      <c r="CL67" s="1"/>
-      <c r="CM67" s="1"/>
-      <c r="CN67" s="1"/>
-      <c r="CO67" s="1"/>
-      <c r="CP67" s="1"/>
-      <c r="CQ67" s="1"/>
-      <c r="CR67" s="1"/>
-      <c r="CS67" s="1"/>
-      <c r="CT67" s="1"/>
-      <c r="CU67" s="1"/>
-      <c r="CV67" s="1"/>
-      <c r="CW67" s="1"/>
-      <c r="CX67" s="1"/>
-      <c r="CY67" s="1"/>
-      <c r="CZ67" s="1"/>
-      <c r="DA67" s="1"/>
-      <c r="DB67" s="1"/>
-      <c r="DC67" s="1"/>
-      <c r="DD67" s="1"/>
     </row>
-    <row r="68" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -18381,39 +16304,8 @@
       <c r="BY68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ68" s="1"/>
-      <c r="CA68" s="1"/>
-      <c r="CB68" s="1"/>
-      <c r="CC68" s="1"/>
-      <c r="CD68" s="1"/>
-      <c r="CE68" s="1"/>
-      <c r="CF68" s="1"/>
-      <c r="CG68" s="1"/>
-      <c r="CH68" s="1"/>
-      <c r="CI68" s="1"/>
-      <c r="CJ68" s="1"/>
-      <c r="CK68" s="1"/>
-      <c r="CL68" s="1"/>
-      <c r="CM68" s="1"/>
-      <c r="CN68" s="1"/>
-      <c r="CO68" s="1"/>
-      <c r="CP68" s="1"/>
-      <c r="CQ68" s="1"/>
-      <c r="CR68" s="1"/>
-      <c r="CS68" s="1"/>
-      <c r="CT68" s="1"/>
-      <c r="CU68" s="1"/>
-      <c r="CV68" s="1"/>
-      <c r="CW68" s="1"/>
-      <c r="CX68" s="1"/>
-      <c r="CY68" s="1"/>
-      <c r="CZ68" s="1"/>
-      <c r="DA68" s="1"/>
-      <c r="DB68" s="1"/>
-      <c r="DC68" s="1"/>
-      <c r="DD68" s="1"/>
     </row>
-    <row r="69" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -18645,39 +16537,8 @@
       <c r="BY69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ69" s="1"/>
-      <c r="CA69" s="1"/>
-      <c r="CB69" s="1"/>
-      <c r="CC69" s="1"/>
-      <c r="CD69" s="1"/>
-      <c r="CE69" s="1"/>
-      <c r="CF69" s="1"/>
-      <c r="CG69" s="1"/>
-      <c r="CH69" s="1"/>
-      <c r="CI69" s="1"/>
-      <c r="CJ69" s="1"/>
-      <c r="CK69" s="1"/>
-      <c r="CL69" s="1"/>
-      <c r="CM69" s="1"/>
-      <c r="CN69" s="1"/>
-      <c r="CO69" s="1"/>
-      <c r="CP69" s="1"/>
-      <c r="CQ69" s="1"/>
-      <c r="CR69" s="1"/>
-      <c r="CS69" s="1"/>
-      <c r="CT69" s="1"/>
-      <c r="CU69" s="1"/>
-      <c r="CV69" s="1"/>
-      <c r="CW69" s="1"/>
-      <c r="CX69" s="1"/>
-      <c r="CY69" s="1"/>
-      <c r="CZ69" s="1"/>
-      <c r="DA69" s="1"/>
-      <c r="DB69" s="1"/>
-      <c r="DC69" s="1"/>
-      <c r="DD69" s="1"/>
     </row>
-    <row r="70" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -18909,39 +16770,8 @@
       <c r="BY70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ70" s="1"/>
-      <c r="CA70" s="1"/>
-      <c r="CB70" s="1"/>
-      <c r="CC70" s="1"/>
-      <c r="CD70" s="1"/>
-      <c r="CE70" s="1"/>
-      <c r="CF70" s="1"/>
-      <c r="CG70" s="1"/>
-      <c r="CH70" s="1"/>
-      <c r="CI70" s="1"/>
-      <c r="CJ70" s="1"/>
-      <c r="CK70" s="1"/>
-      <c r="CL70" s="1"/>
-      <c r="CM70" s="1"/>
-      <c r="CN70" s="1"/>
-      <c r="CO70" s="1"/>
-      <c r="CP70" s="1"/>
-      <c r="CQ70" s="1"/>
-      <c r="CR70" s="1"/>
-      <c r="CS70" s="1"/>
-      <c r="CT70" s="1"/>
-      <c r="CU70" s="1"/>
-      <c r="CV70" s="1"/>
-      <c r="CW70" s="1"/>
-      <c r="CX70" s="1"/>
-      <c r="CY70" s="1"/>
-      <c r="CZ70" s="1"/>
-      <c r="DA70" s="1"/>
-      <c r="DB70" s="1"/>
-      <c r="DC70" s="1"/>
-      <c r="DD70" s="1"/>
     </row>
-    <row r="71" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -19173,39 +17003,8 @@
       <c r="BY71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ71" s="1"/>
-      <c r="CA71" s="1"/>
-      <c r="CB71" s="1"/>
-      <c r="CC71" s="1"/>
-      <c r="CD71" s="1"/>
-      <c r="CE71" s="1"/>
-      <c r="CF71" s="1"/>
-      <c r="CG71" s="1"/>
-      <c r="CH71" s="1"/>
-      <c r="CI71" s="1"/>
-      <c r="CJ71" s="1"/>
-      <c r="CK71" s="1"/>
-      <c r="CL71" s="1"/>
-      <c r="CM71" s="1"/>
-      <c r="CN71" s="1"/>
-      <c r="CO71" s="1"/>
-      <c r="CP71" s="1"/>
-      <c r="CQ71" s="1"/>
-      <c r="CR71" s="1"/>
-      <c r="CS71" s="1"/>
-      <c r="CT71" s="1"/>
-      <c r="CU71" s="1"/>
-      <c r="CV71" s="1"/>
-      <c r="CW71" s="1"/>
-      <c r="CX71" s="1"/>
-      <c r="CY71" s="1"/>
-      <c r="CZ71" s="1"/>
-      <c r="DA71" s="1"/>
-      <c r="DB71" s="1"/>
-      <c r="DC71" s="1"/>
-      <c r="DD71" s="1"/>
     </row>
-    <row r="72" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -19437,39 +17236,8 @@
       <c r="BY72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ72" s="1"/>
-      <c r="CA72" s="1"/>
-      <c r="CB72" s="1"/>
-      <c r="CC72" s="1"/>
-      <c r="CD72" s="1"/>
-      <c r="CE72" s="1"/>
-      <c r="CF72" s="1"/>
-      <c r="CG72" s="1"/>
-      <c r="CH72" s="1"/>
-      <c r="CI72" s="1"/>
-      <c r="CJ72" s="1"/>
-      <c r="CK72" s="1"/>
-      <c r="CL72" s="1"/>
-      <c r="CM72" s="1"/>
-      <c r="CN72" s="1"/>
-      <c r="CO72" s="1"/>
-      <c r="CP72" s="1"/>
-      <c r="CQ72" s="1"/>
-      <c r="CR72" s="1"/>
-      <c r="CS72" s="1"/>
-      <c r="CT72" s="1"/>
-      <c r="CU72" s="1"/>
-      <c r="CV72" s="1"/>
-      <c r="CW72" s="1"/>
-      <c r="CX72" s="1"/>
-      <c r="CY72" s="1"/>
-      <c r="CZ72" s="1"/>
-      <c r="DA72" s="1"/>
-      <c r="DB72" s="1"/>
-      <c r="DC72" s="1"/>
-      <c r="DD72" s="1"/>
     </row>
-    <row r="73" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -19701,39 +17469,8 @@
       <c r="BY73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ73" s="1"/>
-      <c r="CA73" s="1"/>
-      <c r="CB73" s="1"/>
-      <c r="CC73" s="1"/>
-      <c r="CD73" s="1"/>
-      <c r="CE73" s="1"/>
-      <c r="CF73" s="1"/>
-      <c r="CG73" s="1"/>
-      <c r="CH73" s="1"/>
-      <c r="CI73" s="1"/>
-      <c r="CJ73" s="1"/>
-      <c r="CK73" s="1"/>
-      <c r="CL73" s="1"/>
-      <c r="CM73" s="1"/>
-      <c r="CN73" s="1"/>
-      <c r="CO73" s="1"/>
-      <c r="CP73" s="1"/>
-      <c r="CQ73" s="1"/>
-      <c r="CR73" s="1"/>
-      <c r="CS73" s="1"/>
-      <c r="CT73" s="1"/>
-      <c r="CU73" s="1"/>
-      <c r="CV73" s="1"/>
-      <c r="CW73" s="1"/>
-      <c r="CX73" s="1"/>
-      <c r="CY73" s="1"/>
-      <c r="CZ73" s="1"/>
-      <c r="DA73" s="1"/>
-      <c r="DB73" s="1"/>
-      <c r="DC73" s="1"/>
-      <c r="DD73" s="1"/>
     </row>
-    <row r="74" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -19965,39 +17702,8 @@
       <c r="BY74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ74" s="1"/>
-      <c r="CA74" s="1"/>
-      <c r="CB74" s="1"/>
-      <c r="CC74" s="1"/>
-      <c r="CD74" s="1"/>
-      <c r="CE74" s="1"/>
-      <c r="CF74" s="1"/>
-      <c r="CG74" s="1"/>
-      <c r="CH74" s="1"/>
-      <c r="CI74" s="1"/>
-      <c r="CJ74" s="1"/>
-      <c r="CK74" s="1"/>
-      <c r="CL74" s="1"/>
-      <c r="CM74" s="1"/>
-      <c r="CN74" s="1"/>
-      <c r="CO74" s="1"/>
-      <c r="CP74" s="1"/>
-      <c r="CQ74" s="1"/>
-      <c r="CR74" s="1"/>
-      <c r="CS74" s="1"/>
-      <c r="CT74" s="1"/>
-      <c r="CU74" s="1"/>
-      <c r="CV74" s="1"/>
-      <c r="CW74" s="1"/>
-      <c r="CX74" s="1"/>
-      <c r="CY74" s="1"/>
-      <c r="CZ74" s="1"/>
-      <c r="DA74" s="1"/>
-      <c r="DB74" s="1"/>
-      <c r="DC74" s="1"/>
-      <c r="DD74" s="1"/>
     </row>
-    <row r="75" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -20229,39 +17935,8 @@
       <c r="BY75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ75" s="1"/>
-      <c r="CA75" s="1"/>
-      <c r="CB75" s="1"/>
-      <c r="CC75" s="1"/>
-      <c r="CD75" s="1"/>
-      <c r="CE75" s="1"/>
-      <c r="CF75" s="1"/>
-      <c r="CG75" s="1"/>
-      <c r="CH75" s="1"/>
-      <c r="CI75" s="1"/>
-      <c r="CJ75" s="1"/>
-      <c r="CK75" s="1"/>
-      <c r="CL75" s="1"/>
-      <c r="CM75" s="1"/>
-      <c r="CN75" s="1"/>
-      <c r="CO75" s="1"/>
-      <c r="CP75" s="1"/>
-      <c r="CQ75" s="1"/>
-      <c r="CR75" s="1"/>
-      <c r="CS75" s="1"/>
-      <c r="CT75" s="1"/>
-      <c r="CU75" s="1"/>
-      <c r="CV75" s="1"/>
-      <c r="CW75" s="1"/>
-      <c r="CX75" s="1"/>
-      <c r="CY75" s="1"/>
-      <c r="CZ75" s="1"/>
-      <c r="DA75" s="1"/>
-      <c r="DB75" s="1"/>
-      <c r="DC75" s="1"/>
-      <c r="DD75" s="1"/>
     </row>
-    <row r="76" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -20493,39 +18168,8 @@
       <c r="BY76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ76" s="1"/>
-      <c r="CA76" s="1"/>
-      <c r="CB76" s="1"/>
-      <c r="CC76" s="1"/>
-      <c r="CD76" s="1"/>
-      <c r="CE76" s="1"/>
-      <c r="CF76" s="1"/>
-      <c r="CG76" s="1"/>
-      <c r="CH76" s="1"/>
-      <c r="CI76" s="1"/>
-      <c r="CJ76" s="1"/>
-      <c r="CK76" s="1"/>
-      <c r="CL76" s="1"/>
-      <c r="CM76" s="1"/>
-      <c r="CN76" s="1"/>
-      <c r="CO76" s="1"/>
-      <c r="CP76" s="1"/>
-      <c r="CQ76" s="1"/>
-      <c r="CR76" s="1"/>
-      <c r="CS76" s="1"/>
-      <c r="CT76" s="1"/>
-      <c r="CU76" s="1"/>
-      <c r="CV76" s="1"/>
-      <c r="CW76" s="1"/>
-      <c r="CX76" s="1"/>
-      <c r="CY76" s="1"/>
-      <c r="CZ76" s="1"/>
-      <c r="DA76" s="1"/>
-      <c r="DB76" s="1"/>
-      <c r="DC76" s="1"/>
-      <c r="DD76" s="1"/>
     </row>
-    <row r="77" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -20757,39 +18401,8 @@
       <c r="BY77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ77" s="1"/>
-      <c r="CA77" s="1"/>
-      <c r="CB77" s="1"/>
-      <c r="CC77" s="1"/>
-      <c r="CD77" s="1"/>
-      <c r="CE77" s="1"/>
-      <c r="CF77" s="1"/>
-      <c r="CG77" s="1"/>
-      <c r="CH77" s="1"/>
-      <c r="CI77" s="1"/>
-      <c r="CJ77" s="1"/>
-      <c r="CK77" s="1"/>
-      <c r="CL77" s="1"/>
-      <c r="CM77" s="1"/>
-      <c r="CN77" s="1"/>
-      <c r="CO77" s="1"/>
-      <c r="CP77" s="1"/>
-      <c r="CQ77" s="1"/>
-      <c r="CR77" s="1"/>
-      <c r="CS77" s="1"/>
-      <c r="CT77" s="1"/>
-      <c r="CU77" s="1"/>
-      <c r="CV77" s="1"/>
-      <c r="CW77" s="1"/>
-      <c r="CX77" s="1"/>
-      <c r="CY77" s="1"/>
-      <c r="CZ77" s="1"/>
-      <c r="DA77" s="1"/>
-      <c r="DB77" s="1"/>
-      <c r="DC77" s="1"/>
-      <c r="DD77" s="1"/>
     </row>
-    <row r="78" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -21021,39 +18634,8 @@
       <c r="BY78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ78" s="1"/>
-      <c r="CA78" s="1"/>
-      <c r="CB78" s="1"/>
-      <c r="CC78" s="1"/>
-      <c r="CD78" s="1"/>
-      <c r="CE78" s="1"/>
-      <c r="CF78" s="1"/>
-      <c r="CG78" s="1"/>
-      <c r="CH78" s="1"/>
-      <c r="CI78" s="1"/>
-      <c r="CJ78" s="1"/>
-      <c r="CK78" s="1"/>
-      <c r="CL78" s="1"/>
-      <c r="CM78" s="1"/>
-      <c r="CN78" s="1"/>
-      <c r="CO78" s="1"/>
-      <c r="CP78" s="1"/>
-      <c r="CQ78" s="1"/>
-      <c r="CR78" s="1"/>
-      <c r="CS78" s="1"/>
-      <c r="CT78" s="1"/>
-      <c r="CU78" s="1"/>
-      <c r="CV78" s="1"/>
-      <c r="CW78" s="1"/>
-      <c r="CX78" s="1"/>
-      <c r="CY78" s="1"/>
-      <c r="CZ78" s="1"/>
-      <c r="DA78" s="1"/>
-      <c r="DB78" s="1"/>
-      <c r="DC78" s="1"/>
-      <c r="DD78" s="1"/>
     </row>
-    <row r="79" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -21285,39 +18867,8 @@
       <c r="BY79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ79" s="1"/>
-      <c r="CA79" s="1"/>
-      <c r="CB79" s="1"/>
-      <c r="CC79" s="1"/>
-      <c r="CD79" s="1"/>
-      <c r="CE79" s="1"/>
-      <c r="CF79" s="1"/>
-      <c r="CG79" s="1"/>
-      <c r="CH79" s="1"/>
-      <c r="CI79" s="1"/>
-      <c r="CJ79" s="1"/>
-      <c r="CK79" s="1"/>
-      <c r="CL79" s="1"/>
-      <c r="CM79" s="1"/>
-      <c r="CN79" s="1"/>
-      <c r="CO79" s="1"/>
-      <c r="CP79" s="1"/>
-      <c r="CQ79" s="1"/>
-      <c r="CR79" s="1"/>
-      <c r="CS79" s="1"/>
-      <c r="CT79" s="1"/>
-      <c r="CU79" s="1"/>
-      <c r="CV79" s="1"/>
-      <c r="CW79" s="1"/>
-      <c r="CX79" s="1"/>
-      <c r="CY79" s="1"/>
-      <c r="CZ79" s="1"/>
-      <c r="DA79" s="1"/>
-      <c r="DB79" s="1"/>
-      <c r="DC79" s="1"/>
-      <c r="DD79" s="1"/>
     </row>
-    <row r="80" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -21549,39 +19100,8 @@
       <c r="BY80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ80" s="1"/>
-      <c r="CA80" s="1"/>
-      <c r="CB80" s="1"/>
-      <c r="CC80" s="1"/>
-      <c r="CD80" s="1"/>
-      <c r="CE80" s="1"/>
-      <c r="CF80" s="1"/>
-      <c r="CG80" s="1"/>
-      <c r="CH80" s="1"/>
-      <c r="CI80" s="1"/>
-      <c r="CJ80" s="1"/>
-      <c r="CK80" s="1"/>
-      <c r="CL80" s="1"/>
-      <c r="CM80" s="1"/>
-      <c r="CN80" s="1"/>
-      <c r="CO80" s="1"/>
-      <c r="CP80" s="1"/>
-      <c r="CQ80" s="1"/>
-      <c r="CR80" s="1"/>
-      <c r="CS80" s="1"/>
-      <c r="CT80" s="1"/>
-      <c r="CU80" s="1"/>
-      <c r="CV80" s="1"/>
-      <c r="CW80" s="1"/>
-      <c r="CX80" s="1"/>
-      <c r="CY80" s="1"/>
-      <c r="CZ80" s="1"/>
-      <c r="DA80" s="1"/>
-      <c r="DB80" s="1"/>
-      <c r="DC80" s="1"/>
-      <c r="DD80" s="1"/>
     </row>
-    <row r="81" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -21813,39 +19333,8 @@
       <c r="BY81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ81" s="1"/>
-      <c r="CA81" s="1"/>
-      <c r="CB81" s="1"/>
-      <c r="CC81" s="1"/>
-      <c r="CD81" s="1"/>
-      <c r="CE81" s="1"/>
-      <c r="CF81" s="1"/>
-      <c r="CG81" s="1"/>
-      <c r="CH81" s="1"/>
-      <c r="CI81" s="1"/>
-      <c r="CJ81" s="1"/>
-      <c r="CK81" s="1"/>
-      <c r="CL81" s="1"/>
-      <c r="CM81" s="1"/>
-      <c r="CN81" s="1"/>
-      <c r="CO81" s="1"/>
-      <c r="CP81" s="1"/>
-      <c r="CQ81" s="1"/>
-      <c r="CR81" s="1"/>
-      <c r="CS81" s="1"/>
-      <c r="CT81" s="1"/>
-      <c r="CU81" s="1"/>
-      <c r="CV81" s="1"/>
-      <c r="CW81" s="1"/>
-      <c r="CX81" s="1"/>
-      <c r="CY81" s="1"/>
-      <c r="CZ81" s="1"/>
-      <c r="DA81" s="1"/>
-      <c r="DB81" s="1"/>
-      <c r="DC81" s="1"/>
-      <c r="DD81" s="1"/>
     </row>
-    <row r="82" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -22077,39 +19566,8 @@
       <c r="BY82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ82" s="1"/>
-      <c r="CA82" s="1"/>
-      <c r="CB82" s="1"/>
-      <c r="CC82" s="1"/>
-      <c r="CD82" s="1"/>
-      <c r="CE82" s="1"/>
-      <c r="CF82" s="1"/>
-      <c r="CG82" s="1"/>
-      <c r="CH82" s="1"/>
-      <c r="CI82" s="1"/>
-      <c r="CJ82" s="1"/>
-      <c r="CK82" s="1"/>
-      <c r="CL82" s="1"/>
-      <c r="CM82" s="1"/>
-      <c r="CN82" s="1"/>
-      <c r="CO82" s="1"/>
-      <c r="CP82" s="1"/>
-      <c r="CQ82" s="1"/>
-      <c r="CR82" s="1"/>
-      <c r="CS82" s="1"/>
-      <c r="CT82" s="1"/>
-      <c r="CU82" s="1"/>
-      <c r="CV82" s="1"/>
-      <c r="CW82" s="1"/>
-      <c r="CX82" s="1"/>
-      <c r="CY82" s="1"/>
-      <c r="CZ82" s="1"/>
-      <c r="DA82" s="1"/>
-      <c r="DB82" s="1"/>
-      <c r="DC82" s="1"/>
-      <c r="DD82" s="1"/>
     </row>
-    <row r="83" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -22341,39 +19799,8 @@
       <c r="BY83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ83" s="1"/>
-      <c r="CA83" s="1"/>
-      <c r="CB83" s="1"/>
-      <c r="CC83" s="1"/>
-      <c r="CD83" s="1"/>
-      <c r="CE83" s="1"/>
-      <c r="CF83" s="1"/>
-      <c r="CG83" s="1"/>
-      <c r="CH83" s="1"/>
-      <c r="CI83" s="1"/>
-      <c r="CJ83" s="1"/>
-      <c r="CK83" s="1"/>
-      <c r="CL83" s="1"/>
-      <c r="CM83" s="1"/>
-      <c r="CN83" s="1"/>
-      <c r="CO83" s="1"/>
-      <c r="CP83" s="1"/>
-      <c r="CQ83" s="1"/>
-      <c r="CR83" s="1"/>
-      <c r="CS83" s="1"/>
-      <c r="CT83" s="1"/>
-      <c r="CU83" s="1"/>
-      <c r="CV83" s="1"/>
-      <c r="CW83" s="1"/>
-      <c r="CX83" s="1"/>
-      <c r="CY83" s="1"/>
-      <c r="CZ83" s="1"/>
-      <c r="DA83" s="1"/>
-      <c r="DB83" s="1"/>
-      <c r="DC83" s="1"/>
-      <c r="DD83" s="1"/>
     </row>
-    <row r="84" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -22605,39 +20032,8 @@
       <c r="BY84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ84" s="1"/>
-      <c r="CA84" s="1"/>
-      <c r="CB84" s="1"/>
-      <c r="CC84" s="1"/>
-      <c r="CD84" s="1"/>
-      <c r="CE84" s="1"/>
-      <c r="CF84" s="1"/>
-      <c r="CG84" s="1"/>
-      <c r="CH84" s="1"/>
-      <c r="CI84" s="1"/>
-      <c r="CJ84" s="1"/>
-      <c r="CK84" s="1"/>
-      <c r="CL84" s="1"/>
-      <c r="CM84" s="1"/>
-      <c r="CN84" s="1"/>
-      <c r="CO84" s="1"/>
-      <c r="CP84" s="1"/>
-      <c r="CQ84" s="1"/>
-      <c r="CR84" s="1"/>
-      <c r="CS84" s="1"/>
-      <c r="CT84" s="1"/>
-      <c r="CU84" s="1"/>
-      <c r="CV84" s="1"/>
-      <c r="CW84" s="1"/>
-      <c r="CX84" s="1"/>
-      <c r="CY84" s="1"/>
-      <c r="CZ84" s="1"/>
-      <c r="DA84" s="1"/>
-      <c r="DB84" s="1"/>
-      <c r="DC84" s="1"/>
-      <c r="DD84" s="1"/>
     </row>
-    <row r="85" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -22869,39 +20265,8 @@
       <c r="BY85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ85" s="1"/>
-      <c r="CA85" s="1"/>
-      <c r="CB85" s="1"/>
-      <c r="CC85" s="1"/>
-      <c r="CD85" s="1"/>
-      <c r="CE85" s="1"/>
-      <c r="CF85" s="1"/>
-      <c r="CG85" s="1"/>
-      <c r="CH85" s="1"/>
-      <c r="CI85" s="1"/>
-      <c r="CJ85" s="1"/>
-      <c r="CK85" s="1"/>
-      <c r="CL85" s="1"/>
-      <c r="CM85" s="1"/>
-      <c r="CN85" s="1"/>
-      <c r="CO85" s="1"/>
-      <c r="CP85" s="1"/>
-      <c r="CQ85" s="1"/>
-      <c r="CR85" s="1"/>
-      <c r="CS85" s="1"/>
-      <c r="CT85" s="1"/>
-      <c r="CU85" s="1"/>
-      <c r="CV85" s="1"/>
-      <c r="CW85" s="1"/>
-      <c r="CX85" s="1"/>
-      <c r="CY85" s="1"/>
-      <c r="CZ85" s="1"/>
-      <c r="DA85" s="1"/>
-      <c r="DB85" s="1"/>
-      <c r="DC85" s="1"/>
-      <c r="DD85" s="1"/>
     </row>
-    <row r="86" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -23133,39 +20498,8 @@
       <c r="BY86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ86" s="1"/>
-      <c r="CA86" s="1"/>
-      <c r="CB86" s="1"/>
-      <c r="CC86" s="1"/>
-      <c r="CD86" s="1"/>
-      <c r="CE86" s="1"/>
-      <c r="CF86" s="1"/>
-      <c r="CG86" s="1"/>
-      <c r="CH86" s="1"/>
-      <c r="CI86" s="1"/>
-      <c r="CJ86" s="1"/>
-      <c r="CK86" s="1"/>
-      <c r="CL86" s="1"/>
-      <c r="CM86" s="1"/>
-      <c r="CN86" s="1"/>
-      <c r="CO86" s="1"/>
-      <c r="CP86" s="1"/>
-      <c r="CQ86" s="1"/>
-      <c r="CR86" s="1"/>
-      <c r="CS86" s="1"/>
-      <c r="CT86" s="1"/>
-      <c r="CU86" s="1"/>
-      <c r="CV86" s="1"/>
-      <c r="CW86" s="1"/>
-      <c r="CX86" s="1"/>
-      <c r="CY86" s="1"/>
-      <c r="CZ86" s="1"/>
-      <c r="DA86" s="1"/>
-      <c r="DB86" s="1"/>
-      <c r="DC86" s="1"/>
-      <c r="DD86" s="1"/>
     </row>
-    <row r="87" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -23397,39 +20731,8 @@
       <c r="BY87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ87" s="1"/>
-      <c r="CA87" s="1"/>
-      <c r="CB87" s="1"/>
-      <c r="CC87" s="1"/>
-      <c r="CD87" s="1"/>
-      <c r="CE87" s="1"/>
-      <c r="CF87" s="1"/>
-      <c r="CG87" s="1"/>
-      <c r="CH87" s="1"/>
-      <c r="CI87" s="1"/>
-      <c r="CJ87" s="1"/>
-      <c r="CK87" s="1"/>
-      <c r="CL87" s="1"/>
-      <c r="CM87" s="1"/>
-      <c r="CN87" s="1"/>
-      <c r="CO87" s="1"/>
-      <c r="CP87" s="1"/>
-      <c r="CQ87" s="1"/>
-      <c r="CR87" s="1"/>
-      <c r="CS87" s="1"/>
-      <c r="CT87" s="1"/>
-      <c r="CU87" s="1"/>
-      <c r="CV87" s="1"/>
-      <c r="CW87" s="1"/>
-      <c r="CX87" s="1"/>
-      <c r="CY87" s="1"/>
-      <c r="CZ87" s="1"/>
-      <c r="DA87" s="1"/>
-      <c r="DB87" s="1"/>
-      <c r="DC87" s="1"/>
-      <c r="DD87" s="1"/>
     </row>
-    <row r="88" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -23661,39 +20964,8 @@
       <c r="BY88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ88" s="1"/>
-      <c r="CA88" s="1"/>
-      <c r="CB88" s="1"/>
-      <c r="CC88" s="1"/>
-      <c r="CD88" s="1"/>
-      <c r="CE88" s="1"/>
-      <c r="CF88" s="1"/>
-      <c r="CG88" s="1"/>
-      <c r="CH88" s="1"/>
-      <c r="CI88" s="1"/>
-      <c r="CJ88" s="1"/>
-      <c r="CK88" s="1"/>
-      <c r="CL88" s="1"/>
-      <c r="CM88" s="1"/>
-      <c r="CN88" s="1"/>
-      <c r="CO88" s="1"/>
-      <c r="CP88" s="1"/>
-      <c r="CQ88" s="1"/>
-      <c r="CR88" s="1"/>
-      <c r="CS88" s="1"/>
-      <c r="CT88" s="1"/>
-      <c r="CU88" s="1"/>
-      <c r="CV88" s="1"/>
-      <c r="CW88" s="1"/>
-      <c r="CX88" s="1"/>
-      <c r="CY88" s="1"/>
-      <c r="CZ88" s="1"/>
-      <c r="DA88" s="1"/>
-      <c r="DB88" s="1"/>
-      <c r="DC88" s="1"/>
-      <c r="DD88" s="1"/>
     </row>
-    <row r="89" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -23925,39 +21197,8 @@
       <c r="BY89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ89" s="1"/>
-      <c r="CA89" s="1"/>
-      <c r="CB89" s="1"/>
-      <c r="CC89" s="1"/>
-      <c r="CD89" s="1"/>
-      <c r="CE89" s="1"/>
-      <c r="CF89" s="1"/>
-      <c r="CG89" s="1"/>
-      <c r="CH89" s="1"/>
-      <c r="CI89" s="1"/>
-      <c r="CJ89" s="1"/>
-      <c r="CK89" s="1"/>
-      <c r="CL89" s="1"/>
-      <c r="CM89" s="1"/>
-      <c r="CN89" s="1"/>
-      <c r="CO89" s="1"/>
-      <c r="CP89" s="1"/>
-      <c r="CQ89" s="1"/>
-      <c r="CR89" s="1"/>
-      <c r="CS89" s="1"/>
-      <c r="CT89" s="1"/>
-      <c r="CU89" s="1"/>
-      <c r="CV89" s="1"/>
-      <c r="CW89" s="1"/>
-      <c r="CX89" s="1"/>
-      <c r="CY89" s="1"/>
-      <c r="CZ89" s="1"/>
-      <c r="DA89" s="1"/>
-      <c r="DB89" s="1"/>
-      <c r="DC89" s="1"/>
-      <c r="DD89" s="1"/>
     </row>
-    <row r="90" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -24189,39 +21430,8 @@
       <c r="BY90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ90" s="1"/>
-      <c r="CA90" s="1"/>
-      <c r="CB90" s="1"/>
-      <c r="CC90" s="1"/>
-      <c r="CD90" s="1"/>
-      <c r="CE90" s="1"/>
-      <c r="CF90" s="1"/>
-      <c r="CG90" s="1"/>
-      <c r="CH90" s="1"/>
-      <c r="CI90" s="1"/>
-      <c r="CJ90" s="1"/>
-      <c r="CK90" s="1"/>
-      <c r="CL90" s="1"/>
-      <c r="CM90" s="1"/>
-      <c r="CN90" s="1"/>
-      <c r="CO90" s="1"/>
-      <c r="CP90" s="1"/>
-      <c r="CQ90" s="1"/>
-      <c r="CR90" s="1"/>
-      <c r="CS90" s="1"/>
-      <c r="CT90" s="1"/>
-      <c r="CU90" s="1"/>
-      <c r="CV90" s="1"/>
-      <c r="CW90" s="1"/>
-      <c r="CX90" s="1"/>
-      <c r="CY90" s="1"/>
-      <c r="CZ90" s="1"/>
-      <c r="DA90" s="1"/>
-      <c r="DB90" s="1"/>
-      <c r="DC90" s="1"/>
-      <c r="DD90" s="1"/>
     </row>
-    <row r="91" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -24453,39 +21663,8 @@
       <c r="BY91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ91" s="1"/>
-      <c r="CA91" s="1"/>
-      <c r="CB91" s="1"/>
-      <c r="CC91" s="1"/>
-      <c r="CD91" s="1"/>
-      <c r="CE91" s="1"/>
-      <c r="CF91" s="1"/>
-      <c r="CG91" s="1"/>
-      <c r="CH91" s="1"/>
-      <c r="CI91" s="1"/>
-      <c r="CJ91" s="1"/>
-      <c r="CK91" s="1"/>
-      <c r="CL91" s="1"/>
-      <c r="CM91" s="1"/>
-      <c r="CN91" s="1"/>
-      <c r="CO91" s="1"/>
-      <c r="CP91" s="1"/>
-      <c r="CQ91" s="1"/>
-      <c r="CR91" s="1"/>
-      <c r="CS91" s="1"/>
-      <c r="CT91" s="1"/>
-      <c r="CU91" s="1"/>
-      <c r="CV91" s="1"/>
-      <c r="CW91" s="1"/>
-      <c r="CX91" s="1"/>
-      <c r="CY91" s="1"/>
-      <c r="CZ91" s="1"/>
-      <c r="DA91" s="1"/>
-      <c r="DB91" s="1"/>
-      <c r="DC91" s="1"/>
-      <c r="DD91" s="1"/>
     </row>
-    <row r="92" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -24717,39 +21896,8 @@
       <c r="BY92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ92" s="1"/>
-      <c r="CA92" s="1"/>
-      <c r="CB92" s="1"/>
-      <c r="CC92" s="1"/>
-      <c r="CD92" s="1"/>
-      <c r="CE92" s="1"/>
-      <c r="CF92" s="1"/>
-      <c r="CG92" s="1"/>
-      <c r="CH92" s="1"/>
-      <c r="CI92" s="1"/>
-      <c r="CJ92" s="1"/>
-      <c r="CK92" s="1"/>
-      <c r="CL92" s="1"/>
-      <c r="CM92" s="1"/>
-      <c r="CN92" s="1"/>
-      <c r="CO92" s="1"/>
-      <c r="CP92" s="1"/>
-      <c r="CQ92" s="1"/>
-      <c r="CR92" s="1"/>
-      <c r="CS92" s="1"/>
-      <c r="CT92" s="1"/>
-      <c r="CU92" s="1"/>
-      <c r="CV92" s="1"/>
-      <c r="CW92" s="1"/>
-      <c r="CX92" s="1"/>
-      <c r="CY92" s="1"/>
-      <c r="CZ92" s="1"/>
-      <c r="DA92" s="1"/>
-      <c r="DB92" s="1"/>
-      <c r="DC92" s="1"/>
-      <c r="DD92" s="1"/>
     </row>
-    <row r="93" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -24981,39 +22129,8 @@
       <c r="BY93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ93" s="1"/>
-      <c r="CA93" s="1"/>
-      <c r="CB93" s="1"/>
-      <c r="CC93" s="1"/>
-      <c r="CD93" s="1"/>
-      <c r="CE93" s="1"/>
-      <c r="CF93" s="1"/>
-      <c r="CG93" s="1"/>
-      <c r="CH93" s="1"/>
-      <c r="CI93" s="1"/>
-      <c r="CJ93" s="1"/>
-      <c r="CK93" s="1"/>
-      <c r="CL93" s="1"/>
-      <c r="CM93" s="1"/>
-      <c r="CN93" s="1"/>
-      <c r="CO93" s="1"/>
-      <c r="CP93" s="1"/>
-      <c r="CQ93" s="1"/>
-      <c r="CR93" s="1"/>
-      <c r="CS93" s="1"/>
-      <c r="CT93" s="1"/>
-      <c r="CU93" s="1"/>
-      <c r="CV93" s="1"/>
-      <c r="CW93" s="1"/>
-      <c r="CX93" s="1"/>
-      <c r="CY93" s="1"/>
-      <c r="CZ93" s="1"/>
-      <c r="DA93" s="1"/>
-      <c r="DB93" s="1"/>
-      <c r="DC93" s="1"/>
-      <c r="DD93" s="1"/>
     </row>
-    <row r="94" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -25245,39 +22362,8 @@
       <c r="BY94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ94" s="1"/>
-      <c r="CA94" s="1"/>
-      <c r="CB94" s="1"/>
-      <c r="CC94" s="1"/>
-      <c r="CD94" s="1"/>
-      <c r="CE94" s="1"/>
-      <c r="CF94" s="1"/>
-      <c r="CG94" s="1"/>
-      <c r="CH94" s="1"/>
-      <c r="CI94" s="1"/>
-      <c r="CJ94" s="1"/>
-      <c r="CK94" s="1"/>
-      <c r="CL94" s="1"/>
-      <c r="CM94" s="1"/>
-      <c r="CN94" s="1"/>
-      <c r="CO94" s="1"/>
-      <c r="CP94" s="1"/>
-      <c r="CQ94" s="1"/>
-      <c r="CR94" s="1"/>
-      <c r="CS94" s="1"/>
-      <c r="CT94" s="1"/>
-      <c r="CU94" s="1"/>
-      <c r="CV94" s="1"/>
-      <c r="CW94" s="1"/>
-      <c r="CX94" s="1"/>
-      <c r="CY94" s="1"/>
-      <c r="CZ94" s="1"/>
-      <c r="DA94" s="1"/>
-      <c r="DB94" s="1"/>
-      <c r="DC94" s="1"/>
-      <c r="DD94" s="1"/>
     </row>
-    <row r="95" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -25509,39 +22595,8 @@
       <c r="BY95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ95" s="1"/>
-      <c r="CA95" s="1"/>
-      <c r="CB95" s="1"/>
-      <c r="CC95" s="1"/>
-      <c r="CD95" s="1"/>
-      <c r="CE95" s="1"/>
-      <c r="CF95" s="1"/>
-      <c r="CG95" s="1"/>
-      <c r="CH95" s="1"/>
-      <c r="CI95" s="1"/>
-      <c r="CJ95" s="1"/>
-      <c r="CK95" s="1"/>
-      <c r="CL95" s="1"/>
-      <c r="CM95" s="1"/>
-      <c r="CN95" s="1"/>
-      <c r="CO95" s="1"/>
-      <c r="CP95" s="1"/>
-      <c r="CQ95" s="1"/>
-      <c r="CR95" s="1"/>
-      <c r="CS95" s="1"/>
-      <c r="CT95" s="1"/>
-      <c r="CU95" s="1"/>
-      <c r="CV95" s="1"/>
-      <c r="CW95" s="1"/>
-      <c r="CX95" s="1"/>
-      <c r="CY95" s="1"/>
-      <c r="CZ95" s="1"/>
-      <c r="DA95" s="1"/>
-      <c r="DB95" s="1"/>
-      <c r="DC95" s="1"/>
-      <c r="DD95" s="1"/>
     </row>
-    <row r="96" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -25773,39 +22828,8 @@
       <c r="BY96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ96" s="1"/>
-      <c r="CA96" s="1"/>
-      <c r="CB96" s="1"/>
-      <c r="CC96" s="1"/>
-      <c r="CD96" s="1"/>
-      <c r="CE96" s="1"/>
-      <c r="CF96" s="1"/>
-      <c r="CG96" s="1"/>
-      <c r="CH96" s="1"/>
-      <c r="CI96" s="1"/>
-      <c r="CJ96" s="1"/>
-      <c r="CK96" s="1"/>
-      <c r="CL96" s="1"/>
-      <c r="CM96" s="1"/>
-      <c r="CN96" s="1"/>
-      <c r="CO96" s="1"/>
-      <c r="CP96" s="1"/>
-      <c r="CQ96" s="1"/>
-      <c r="CR96" s="1"/>
-      <c r="CS96" s="1"/>
-      <c r="CT96" s="1"/>
-      <c r="CU96" s="1"/>
-      <c r="CV96" s="1"/>
-      <c r="CW96" s="1"/>
-      <c r="CX96" s="1"/>
-      <c r="CY96" s="1"/>
-      <c r="CZ96" s="1"/>
-      <c r="DA96" s="1"/>
-      <c r="DB96" s="1"/>
-      <c r="DC96" s="1"/>
-      <c r="DD96" s="1"/>
     </row>
-    <row r="97" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -26037,39 +23061,8 @@
       <c r="BY97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ97" s="1"/>
-      <c r="CA97" s="1"/>
-      <c r="CB97" s="1"/>
-      <c r="CC97" s="1"/>
-      <c r="CD97" s="1"/>
-      <c r="CE97" s="1"/>
-      <c r="CF97" s="1"/>
-      <c r="CG97" s="1"/>
-      <c r="CH97" s="1"/>
-      <c r="CI97" s="1"/>
-      <c r="CJ97" s="1"/>
-      <c r="CK97" s="1"/>
-      <c r="CL97" s="1"/>
-      <c r="CM97" s="1"/>
-      <c r="CN97" s="1"/>
-      <c r="CO97" s="1"/>
-      <c r="CP97" s="1"/>
-      <c r="CQ97" s="1"/>
-      <c r="CR97" s="1"/>
-      <c r="CS97" s="1"/>
-      <c r="CT97" s="1"/>
-      <c r="CU97" s="1"/>
-      <c r="CV97" s="1"/>
-      <c r="CW97" s="1"/>
-      <c r="CX97" s="1"/>
-      <c r="CY97" s="1"/>
-      <c r="CZ97" s="1"/>
-      <c r="DA97" s="1"/>
-      <c r="DB97" s="1"/>
-      <c r="DC97" s="1"/>
-      <c r="DD97" s="1"/>
     </row>
-    <row r="98" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -26301,39 +23294,8 @@
       <c r="BY98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ98" s="1"/>
-      <c r="CA98" s="1"/>
-      <c r="CB98" s="1"/>
-      <c r="CC98" s="1"/>
-      <c r="CD98" s="1"/>
-      <c r="CE98" s="1"/>
-      <c r="CF98" s="1"/>
-      <c r="CG98" s="1"/>
-      <c r="CH98" s="1"/>
-      <c r="CI98" s="1"/>
-      <c r="CJ98" s="1"/>
-      <c r="CK98" s="1"/>
-      <c r="CL98" s="1"/>
-      <c r="CM98" s="1"/>
-      <c r="CN98" s="1"/>
-      <c r="CO98" s="1"/>
-      <c r="CP98" s="1"/>
-      <c r="CQ98" s="1"/>
-      <c r="CR98" s="1"/>
-      <c r="CS98" s="1"/>
-      <c r="CT98" s="1"/>
-      <c r="CU98" s="1"/>
-      <c r="CV98" s="1"/>
-      <c r="CW98" s="1"/>
-      <c r="CX98" s="1"/>
-      <c r="CY98" s="1"/>
-      <c r="CZ98" s="1"/>
-      <c r="DA98" s="1"/>
-      <c r="DB98" s="1"/>
-      <c r="DC98" s="1"/>
-      <c r="DD98" s="1"/>
     </row>
-    <row r="99" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -26565,39 +23527,8 @@
       <c r="BY99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ99" s="1"/>
-      <c r="CA99" s="1"/>
-      <c r="CB99" s="1"/>
-      <c r="CC99" s="1"/>
-      <c r="CD99" s="1"/>
-      <c r="CE99" s="1"/>
-      <c r="CF99" s="1"/>
-      <c r="CG99" s="1"/>
-      <c r="CH99" s="1"/>
-      <c r="CI99" s="1"/>
-      <c r="CJ99" s="1"/>
-      <c r="CK99" s="1"/>
-      <c r="CL99" s="1"/>
-      <c r="CM99" s="1"/>
-      <c r="CN99" s="1"/>
-      <c r="CO99" s="1"/>
-      <c r="CP99" s="1"/>
-      <c r="CQ99" s="1"/>
-      <c r="CR99" s="1"/>
-      <c r="CS99" s="1"/>
-      <c r="CT99" s="1"/>
-      <c r="CU99" s="1"/>
-      <c r="CV99" s="1"/>
-      <c r="CW99" s="1"/>
-      <c r="CX99" s="1"/>
-      <c r="CY99" s="1"/>
-      <c r="CZ99" s="1"/>
-      <c r="DA99" s="1"/>
-      <c r="DB99" s="1"/>
-      <c r="DC99" s="1"/>
-      <c r="DD99" s="1"/>
     </row>
-    <row r="100" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -26829,39 +23760,8 @@
       <c r="BY100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ100" s="1"/>
-      <c r="CA100" s="1"/>
-      <c r="CB100" s="1"/>
-      <c r="CC100" s="1"/>
-      <c r="CD100" s="1"/>
-      <c r="CE100" s="1"/>
-      <c r="CF100" s="1"/>
-      <c r="CG100" s="1"/>
-      <c r="CH100" s="1"/>
-      <c r="CI100" s="1"/>
-      <c r="CJ100" s="1"/>
-      <c r="CK100" s="1"/>
-      <c r="CL100" s="1"/>
-      <c r="CM100" s="1"/>
-      <c r="CN100" s="1"/>
-      <c r="CO100" s="1"/>
-      <c r="CP100" s="1"/>
-      <c r="CQ100" s="1"/>
-      <c r="CR100" s="1"/>
-      <c r="CS100" s="1"/>
-      <c r="CT100" s="1"/>
-      <c r="CU100" s="1"/>
-      <c r="CV100" s="1"/>
-      <c r="CW100" s="1"/>
-      <c r="CX100" s="1"/>
-      <c r="CY100" s="1"/>
-      <c r="CZ100" s="1"/>
-      <c r="DA100" s="1"/>
-      <c r="DB100" s="1"/>
-      <c r="DC100" s="1"/>
-      <c r="DD100" s="1"/>
     </row>
-    <row r="101" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -27093,39 +23993,8 @@
       <c r="BY101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ101" s="1"/>
-      <c r="CA101" s="1"/>
-      <c r="CB101" s="1"/>
-      <c r="CC101" s="1"/>
-      <c r="CD101" s="1"/>
-      <c r="CE101" s="1"/>
-      <c r="CF101" s="1"/>
-      <c r="CG101" s="1"/>
-      <c r="CH101" s="1"/>
-      <c r="CI101" s="1"/>
-      <c r="CJ101" s="1"/>
-      <c r="CK101" s="1"/>
-      <c r="CL101" s="1"/>
-      <c r="CM101" s="1"/>
-      <c r="CN101" s="1"/>
-      <c r="CO101" s="1"/>
-      <c r="CP101" s="1"/>
-      <c r="CQ101" s="1"/>
-      <c r="CR101" s="1"/>
-      <c r="CS101" s="1"/>
-      <c r="CT101" s="1"/>
-      <c r="CU101" s="1"/>
-      <c r="CV101" s="1"/>
-      <c r="CW101" s="1"/>
-      <c r="CX101" s="1"/>
-      <c r="CY101" s="1"/>
-      <c r="CZ101" s="1"/>
-      <c r="DA101" s="1"/>
-      <c r="DB101" s="1"/>
-      <c r="DC101" s="1"/>
-      <c r="DD101" s="1"/>
     </row>
-    <row r="102" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -27357,39 +24226,8 @@
       <c r="BY102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ102" s="1"/>
-      <c r="CA102" s="1"/>
-      <c r="CB102" s="1"/>
-      <c r="CC102" s="1"/>
-      <c r="CD102" s="1"/>
-      <c r="CE102" s="1"/>
-      <c r="CF102" s="1"/>
-      <c r="CG102" s="1"/>
-      <c r="CH102" s="1"/>
-      <c r="CI102" s="1"/>
-      <c r="CJ102" s="1"/>
-      <c r="CK102" s="1"/>
-      <c r="CL102" s="1"/>
-      <c r="CM102" s="1"/>
-      <c r="CN102" s="1"/>
-      <c r="CO102" s="1"/>
-      <c r="CP102" s="1"/>
-      <c r="CQ102" s="1"/>
-      <c r="CR102" s="1"/>
-      <c r="CS102" s="1"/>
-      <c r="CT102" s="1"/>
-      <c r="CU102" s="1"/>
-      <c r="CV102" s="1"/>
-      <c r="CW102" s="1"/>
-      <c r="CX102" s="1"/>
-      <c r="CY102" s="1"/>
-      <c r="CZ102" s="1"/>
-      <c r="DA102" s="1"/>
-      <c r="DB102" s="1"/>
-      <c r="DC102" s="1"/>
-      <c r="DD102" s="1"/>
     </row>
-    <row r="103" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -27621,39 +24459,8 @@
       <c r="BY103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ103" s="1"/>
-      <c r="CA103" s="1"/>
-      <c r="CB103" s="1"/>
-      <c r="CC103" s="1"/>
-      <c r="CD103" s="1"/>
-      <c r="CE103" s="1"/>
-      <c r="CF103" s="1"/>
-      <c r="CG103" s="1"/>
-      <c r="CH103" s="1"/>
-      <c r="CI103" s="1"/>
-      <c r="CJ103" s="1"/>
-      <c r="CK103" s="1"/>
-      <c r="CL103" s="1"/>
-      <c r="CM103" s="1"/>
-      <c r="CN103" s="1"/>
-      <c r="CO103" s="1"/>
-      <c r="CP103" s="1"/>
-      <c r="CQ103" s="1"/>
-      <c r="CR103" s="1"/>
-      <c r="CS103" s="1"/>
-      <c r="CT103" s="1"/>
-      <c r="CU103" s="1"/>
-      <c r="CV103" s="1"/>
-      <c r="CW103" s="1"/>
-      <c r="CX103" s="1"/>
-      <c r="CY103" s="1"/>
-      <c r="CZ103" s="1"/>
-      <c r="DA103" s="1"/>
-      <c r="DB103" s="1"/>
-      <c r="DC103" s="1"/>
-      <c r="DD103" s="1"/>
     </row>
-    <row r="104" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>0</v>
       </c>
@@ -27885,39 +24692,8 @@
       <c r="BY104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ104" s="1"/>
-      <c r="CA104" s="1"/>
-      <c r="CB104" s="1"/>
-      <c r="CC104" s="1"/>
-      <c r="CD104" s="1"/>
-      <c r="CE104" s="1"/>
-      <c r="CF104" s="1"/>
-      <c r="CG104" s="1"/>
-      <c r="CH104" s="1"/>
-      <c r="CI104" s="1"/>
-      <c r="CJ104" s="1"/>
-      <c r="CK104" s="1"/>
-      <c r="CL104" s="1"/>
-      <c r="CM104" s="1"/>
-      <c r="CN104" s="1"/>
-      <c r="CO104" s="1"/>
-      <c r="CP104" s="1"/>
-      <c r="CQ104" s="1"/>
-      <c r="CR104" s="1"/>
-      <c r="CS104" s="1"/>
-      <c r="CT104" s="1"/>
-      <c r="CU104" s="1"/>
-      <c r="CV104" s="1"/>
-      <c r="CW104" s="1"/>
-      <c r="CX104" s="1"/>
-      <c r="CY104" s="1"/>
-      <c r="CZ104" s="1"/>
-      <c r="DA104" s="1"/>
-      <c r="DB104" s="1"/>
-      <c r="DC104" s="1"/>
-      <c r="DD104" s="1"/>
     </row>
-    <row r="105" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -28149,39 +24925,8 @@
       <c r="BY105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ105" s="1"/>
-      <c r="CA105" s="1"/>
-      <c r="CB105" s="1"/>
-      <c r="CC105" s="1"/>
-      <c r="CD105" s="1"/>
-      <c r="CE105" s="1"/>
-      <c r="CF105" s="1"/>
-      <c r="CG105" s="1"/>
-      <c r="CH105" s="1"/>
-      <c r="CI105" s="1"/>
-      <c r="CJ105" s="1"/>
-      <c r="CK105" s="1"/>
-      <c r="CL105" s="1"/>
-      <c r="CM105" s="1"/>
-      <c r="CN105" s="1"/>
-      <c r="CO105" s="1"/>
-      <c r="CP105" s="1"/>
-      <c r="CQ105" s="1"/>
-      <c r="CR105" s="1"/>
-      <c r="CS105" s="1"/>
-      <c r="CT105" s="1"/>
-      <c r="CU105" s="1"/>
-      <c r="CV105" s="1"/>
-      <c r="CW105" s="1"/>
-      <c r="CX105" s="1"/>
-      <c r="CY105" s="1"/>
-      <c r="CZ105" s="1"/>
-      <c r="DA105" s="1"/>
-      <c r="DB105" s="1"/>
-      <c r="DC105" s="1"/>
-      <c r="DD105" s="1"/>
     </row>
-    <row r="106" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -28413,39 +25158,8 @@
       <c r="BY106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ106" s="1"/>
-      <c r="CA106" s="1"/>
-      <c r="CB106" s="1"/>
-      <c r="CC106" s="1"/>
-      <c r="CD106" s="1"/>
-      <c r="CE106" s="1"/>
-      <c r="CF106" s="1"/>
-      <c r="CG106" s="1"/>
-      <c r="CH106" s="1"/>
-      <c r="CI106" s="1"/>
-      <c r="CJ106" s="1"/>
-      <c r="CK106" s="1"/>
-      <c r="CL106" s="1"/>
-      <c r="CM106" s="1"/>
-      <c r="CN106" s="1"/>
-      <c r="CO106" s="1"/>
-      <c r="CP106" s="1"/>
-      <c r="CQ106" s="1"/>
-      <c r="CR106" s="1"/>
-      <c r="CS106" s="1"/>
-      <c r="CT106" s="1"/>
-      <c r="CU106" s="1"/>
-      <c r="CV106" s="1"/>
-      <c r="CW106" s="1"/>
-      <c r="CX106" s="1"/>
-      <c r="CY106" s="1"/>
-      <c r="CZ106" s="1"/>
-      <c r="DA106" s="1"/>
-      <c r="DB106" s="1"/>
-      <c r="DC106" s="1"/>
-      <c r="DD106" s="1"/>
     </row>
-    <row r="107" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -28677,39 +25391,8 @@
       <c r="BY107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ107" s="1"/>
-      <c r="CA107" s="1"/>
-      <c r="CB107" s="1"/>
-      <c r="CC107" s="1"/>
-      <c r="CD107" s="1"/>
-      <c r="CE107" s="1"/>
-      <c r="CF107" s="1"/>
-      <c r="CG107" s="1"/>
-      <c r="CH107" s="1"/>
-      <c r="CI107" s="1"/>
-      <c r="CJ107" s="1"/>
-      <c r="CK107" s="1"/>
-      <c r="CL107" s="1"/>
-      <c r="CM107" s="1"/>
-      <c r="CN107" s="1"/>
-      <c r="CO107" s="1"/>
-      <c r="CP107" s="1"/>
-      <c r="CQ107" s="1"/>
-      <c r="CR107" s="1"/>
-      <c r="CS107" s="1"/>
-      <c r="CT107" s="1"/>
-      <c r="CU107" s="1"/>
-      <c r="CV107" s="1"/>
-      <c r="CW107" s="1"/>
-      <c r="CX107" s="1"/>
-      <c r="CY107" s="1"/>
-      <c r="CZ107" s="1"/>
-      <c r="DA107" s="1"/>
-      <c r="DB107" s="1"/>
-      <c r="DC107" s="1"/>
-      <c r="DD107" s="1"/>
     </row>
-    <row r="108" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -28941,39 +25624,8 @@
       <c r="BY108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ108" s="1"/>
-      <c r="CA108" s="1"/>
-      <c r="CB108" s="1"/>
-      <c r="CC108" s="1"/>
-      <c r="CD108" s="1"/>
-      <c r="CE108" s="1"/>
-      <c r="CF108" s="1"/>
-      <c r="CG108" s="1"/>
-      <c r="CH108" s="1"/>
-      <c r="CI108" s="1"/>
-      <c r="CJ108" s="1"/>
-      <c r="CK108" s="1"/>
-      <c r="CL108" s="1"/>
-      <c r="CM108" s="1"/>
-      <c r="CN108" s="1"/>
-      <c r="CO108" s="1"/>
-      <c r="CP108" s="1"/>
-      <c r="CQ108" s="1"/>
-      <c r="CR108" s="1"/>
-      <c r="CS108" s="1"/>
-      <c r="CT108" s="1"/>
-      <c r="CU108" s="1"/>
-      <c r="CV108" s="1"/>
-      <c r="CW108" s="1"/>
-      <c r="CX108" s="1"/>
-      <c r="CY108" s="1"/>
-      <c r="CZ108" s="1"/>
-      <c r="DA108" s="1"/>
-      <c r="DB108" s="1"/>
-      <c r="DC108" s="1"/>
-      <c r="DD108" s="1"/>
     </row>
-    <row r="109" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -29205,39 +25857,8 @@
       <c r="BY109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ109" s="1"/>
-      <c r="CA109" s="1"/>
-      <c r="CB109" s="1"/>
-      <c r="CC109" s="1"/>
-      <c r="CD109" s="1"/>
-      <c r="CE109" s="1"/>
-      <c r="CF109" s="1"/>
-      <c r="CG109" s="1"/>
-      <c r="CH109" s="1"/>
-      <c r="CI109" s="1"/>
-      <c r="CJ109" s="1"/>
-      <c r="CK109" s="1"/>
-      <c r="CL109" s="1"/>
-      <c r="CM109" s="1"/>
-      <c r="CN109" s="1"/>
-      <c r="CO109" s="1"/>
-      <c r="CP109" s="1"/>
-      <c r="CQ109" s="1"/>
-      <c r="CR109" s="1"/>
-      <c r="CS109" s="1"/>
-      <c r="CT109" s="1"/>
-      <c r="CU109" s="1"/>
-      <c r="CV109" s="1"/>
-      <c r="CW109" s="1"/>
-      <c r="CX109" s="1"/>
-      <c r="CY109" s="1"/>
-      <c r="CZ109" s="1"/>
-      <c r="DA109" s="1"/>
-      <c r="DB109" s="1"/>
-      <c r="DC109" s="1"/>
-      <c r="DD109" s="1"/>
     </row>
-    <row r="110" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -29469,39 +26090,8 @@
       <c r="BY110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ110" s="1"/>
-      <c r="CA110" s="1"/>
-      <c r="CB110" s="1"/>
-      <c r="CC110" s="1"/>
-      <c r="CD110" s="1"/>
-      <c r="CE110" s="1"/>
-      <c r="CF110" s="1"/>
-      <c r="CG110" s="1"/>
-      <c r="CH110" s="1"/>
-      <c r="CI110" s="1"/>
-      <c r="CJ110" s="1"/>
-      <c r="CK110" s="1"/>
-      <c r="CL110" s="1"/>
-      <c r="CM110" s="1"/>
-      <c r="CN110" s="1"/>
-      <c r="CO110" s="1"/>
-      <c r="CP110" s="1"/>
-      <c r="CQ110" s="1"/>
-      <c r="CR110" s="1"/>
-      <c r="CS110" s="1"/>
-      <c r="CT110" s="1"/>
-      <c r="CU110" s="1"/>
-      <c r="CV110" s="1"/>
-      <c r="CW110" s="1"/>
-      <c r="CX110" s="1"/>
-      <c r="CY110" s="1"/>
-      <c r="CZ110" s="1"/>
-      <c r="DA110" s="1"/>
-      <c r="DB110" s="1"/>
-      <c r="DC110" s="1"/>
-      <c r="DD110" s="1"/>
     </row>
-    <row r="111" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -29733,39 +26323,8 @@
       <c r="BY111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ111" s="1"/>
-      <c r="CA111" s="1"/>
-      <c r="CB111" s="1"/>
-      <c r="CC111" s="1"/>
-      <c r="CD111" s="1"/>
-      <c r="CE111" s="1"/>
-      <c r="CF111" s="1"/>
-      <c r="CG111" s="1"/>
-      <c r="CH111" s="1"/>
-      <c r="CI111" s="1"/>
-      <c r="CJ111" s="1"/>
-      <c r="CK111" s="1"/>
-      <c r="CL111" s="1"/>
-      <c r="CM111" s="1"/>
-      <c r="CN111" s="1"/>
-      <c r="CO111" s="1"/>
-      <c r="CP111" s="1"/>
-      <c r="CQ111" s="1"/>
-      <c r="CR111" s="1"/>
-      <c r="CS111" s="1"/>
-      <c r="CT111" s="1"/>
-      <c r="CU111" s="1"/>
-      <c r="CV111" s="1"/>
-      <c r="CW111" s="1"/>
-      <c r="CX111" s="1"/>
-      <c r="CY111" s="1"/>
-      <c r="CZ111" s="1"/>
-      <c r="DA111" s="1"/>
-      <c r="DB111" s="1"/>
-      <c r="DC111" s="1"/>
-      <c r="DD111" s="1"/>
     </row>
-    <row r="112" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -29997,39 +26556,8 @@
       <c r="BY112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ112" s="1"/>
-      <c r="CA112" s="1"/>
-      <c r="CB112" s="1"/>
-      <c r="CC112" s="1"/>
-      <c r="CD112" s="1"/>
-      <c r="CE112" s="1"/>
-      <c r="CF112" s="1"/>
-      <c r="CG112" s="1"/>
-      <c r="CH112" s="1"/>
-      <c r="CI112" s="1"/>
-      <c r="CJ112" s="1"/>
-      <c r="CK112" s="1"/>
-      <c r="CL112" s="1"/>
-      <c r="CM112" s="1"/>
-      <c r="CN112" s="1"/>
-      <c r="CO112" s="1"/>
-      <c r="CP112" s="1"/>
-      <c r="CQ112" s="1"/>
-      <c r="CR112" s="1"/>
-      <c r="CS112" s="1"/>
-      <c r="CT112" s="1"/>
-      <c r="CU112" s="1"/>
-      <c r="CV112" s="1"/>
-      <c r="CW112" s="1"/>
-      <c r="CX112" s="1"/>
-      <c r="CY112" s="1"/>
-      <c r="CZ112" s="1"/>
-      <c r="DA112" s="1"/>
-      <c r="DB112" s="1"/>
-      <c r="DC112" s="1"/>
-      <c r="DD112" s="1"/>
     </row>
-    <row r="113" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -30261,39 +26789,8 @@
       <c r="BY113" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ113" s="1"/>
-      <c r="CA113" s="1"/>
-      <c r="CB113" s="1"/>
-      <c r="CC113" s="1"/>
-      <c r="CD113" s="1"/>
-      <c r="CE113" s="1"/>
-      <c r="CF113" s="1"/>
-      <c r="CG113" s="1"/>
-      <c r="CH113" s="1"/>
-      <c r="CI113" s="1"/>
-      <c r="CJ113" s="1"/>
-      <c r="CK113" s="1"/>
-      <c r="CL113" s="1"/>
-      <c r="CM113" s="1"/>
-      <c r="CN113" s="1"/>
-      <c r="CO113" s="1"/>
-      <c r="CP113" s="1"/>
-      <c r="CQ113" s="1"/>
-      <c r="CR113" s="1"/>
-      <c r="CS113" s="1"/>
-      <c r="CT113" s="1"/>
-      <c r="CU113" s="1"/>
-      <c r="CV113" s="1"/>
-      <c r="CW113" s="1"/>
-      <c r="CX113" s="1"/>
-      <c r="CY113" s="1"/>
-      <c r="CZ113" s="1"/>
-      <c r="DA113" s="1"/>
-      <c r="DB113" s="1"/>
-      <c r="DC113" s="1"/>
-      <c r="DD113" s="1"/>
     </row>
-    <row r="114" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -30525,39 +27022,8 @@
       <c r="BY114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ114" s="1"/>
-      <c r="CA114" s="1"/>
-      <c r="CB114" s="1"/>
-      <c r="CC114" s="1"/>
-      <c r="CD114" s="1"/>
-      <c r="CE114" s="1"/>
-      <c r="CF114" s="1"/>
-      <c r="CG114" s="1"/>
-      <c r="CH114" s="1"/>
-      <c r="CI114" s="1"/>
-      <c r="CJ114" s="1"/>
-      <c r="CK114" s="1"/>
-      <c r="CL114" s="1"/>
-      <c r="CM114" s="1"/>
-      <c r="CN114" s="1"/>
-      <c r="CO114" s="1"/>
-      <c r="CP114" s="1"/>
-      <c r="CQ114" s="1"/>
-      <c r="CR114" s="1"/>
-      <c r="CS114" s="1"/>
-      <c r="CT114" s="1"/>
-      <c r="CU114" s="1"/>
-      <c r="CV114" s="1"/>
-      <c r="CW114" s="1"/>
-      <c r="CX114" s="1"/>
-      <c r="CY114" s="1"/>
-      <c r="CZ114" s="1"/>
-      <c r="DA114" s="1"/>
-      <c r="DB114" s="1"/>
-      <c r="DC114" s="1"/>
-      <c r="DD114" s="1"/>
     </row>
-    <row r="115" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -30789,39 +27255,8 @@
       <c r="BY115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ115" s="1"/>
-      <c r="CA115" s="1"/>
-      <c r="CB115" s="1"/>
-      <c r="CC115" s="1"/>
-      <c r="CD115" s="1"/>
-      <c r="CE115" s="1"/>
-      <c r="CF115" s="1"/>
-      <c r="CG115" s="1"/>
-      <c r="CH115" s="1"/>
-      <c r="CI115" s="1"/>
-      <c r="CJ115" s="1"/>
-      <c r="CK115" s="1"/>
-      <c r="CL115" s="1"/>
-      <c r="CM115" s="1"/>
-      <c r="CN115" s="1"/>
-      <c r="CO115" s="1"/>
-      <c r="CP115" s="1"/>
-      <c r="CQ115" s="1"/>
-      <c r="CR115" s="1"/>
-      <c r="CS115" s="1"/>
-      <c r="CT115" s="1"/>
-      <c r="CU115" s="1"/>
-      <c r="CV115" s="1"/>
-      <c r="CW115" s="1"/>
-      <c r="CX115" s="1"/>
-      <c r="CY115" s="1"/>
-      <c r="CZ115" s="1"/>
-      <c r="DA115" s="1"/>
-      <c r="DB115" s="1"/>
-      <c r="DC115" s="1"/>
-      <c r="DD115" s="1"/>
     </row>
-    <row r="116" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -31053,39 +27488,8 @@
       <c r="BY116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ116" s="1"/>
-      <c r="CA116" s="1"/>
-      <c r="CB116" s="1"/>
-      <c r="CC116" s="1"/>
-      <c r="CD116" s="1"/>
-      <c r="CE116" s="1"/>
-      <c r="CF116" s="1"/>
-      <c r="CG116" s="1"/>
-      <c r="CH116" s="1"/>
-      <c r="CI116" s="1"/>
-      <c r="CJ116" s="1"/>
-      <c r="CK116" s="1"/>
-      <c r="CL116" s="1"/>
-      <c r="CM116" s="1"/>
-      <c r="CN116" s="1"/>
-      <c r="CO116" s="1"/>
-      <c r="CP116" s="1"/>
-      <c r="CQ116" s="1"/>
-      <c r="CR116" s="1"/>
-      <c r="CS116" s="1"/>
-      <c r="CT116" s="1"/>
-      <c r="CU116" s="1"/>
-      <c r="CV116" s="1"/>
-      <c r="CW116" s="1"/>
-      <c r="CX116" s="1"/>
-      <c r="CY116" s="1"/>
-      <c r="CZ116" s="1"/>
-      <c r="DA116" s="1"/>
-      <c r="DB116" s="1"/>
-      <c r="DC116" s="1"/>
-      <c r="DD116" s="1"/>
     </row>
-    <row r="117" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -31317,39 +27721,8 @@
       <c r="BY117" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ117" s="1"/>
-      <c r="CA117" s="1"/>
-      <c r="CB117" s="1"/>
-      <c r="CC117" s="1"/>
-      <c r="CD117" s="1"/>
-      <c r="CE117" s="1"/>
-      <c r="CF117" s="1"/>
-      <c r="CG117" s="1"/>
-      <c r="CH117" s="1"/>
-      <c r="CI117" s="1"/>
-      <c r="CJ117" s="1"/>
-      <c r="CK117" s="1"/>
-      <c r="CL117" s="1"/>
-      <c r="CM117" s="1"/>
-      <c r="CN117" s="1"/>
-      <c r="CO117" s="1"/>
-      <c r="CP117" s="1"/>
-      <c r="CQ117" s="1"/>
-      <c r="CR117" s="1"/>
-      <c r="CS117" s="1"/>
-      <c r="CT117" s="1"/>
-      <c r="CU117" s="1"/>
-      <c r="CV117" s="1"/>
-      <c r="CW117" s="1"/>
-      <c r="CX117" s="1"/>
-      <c r="CY117" s="1"/>
-      <c r="CZ117" s="1"/>
-      <c r="DA117" s="1"/>
-      <c r="DB117" s="1"/>
-      <c r="DC117" s="1"/>
-      <c r="DD117" s="1"/>
     </row>
-    <row r="118" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -31581,39 +27954,8 @@
       <c r="BY118" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ118" s="1"/>
-      <c r="CA118" s="1"/>
-      <c r="CB118" s="1"/>
-      <c r="CC118" s="1"/>
-      <c r="CD118" s="1"/>
-      <c r="CE118" s="1"/>
-      <c r="CF118" s="1"/>
-      <c r="CG118" s="1"/>
-      <c r="CH118" s="1"/>
-      <c r="CI118" s="1"/>
-      <c r="CJ118" s="1"/>
-      <c r="CK118" s="1"/>
-      <c r="CL118" s="1"/>
-      <c r="CM118" s="1"/>
-      <c r="CN118" s="1"/>
-      <c r="CO118" s="1"/>
-      <c r="CP118" s="1"/>
-      <c r="CQ118" s="1"/>
-      <c r="CR118" s="1"/>
-      <c r="CS118" s="1"/>
-      <c r="CT118" s="1"/>
-      <c r="CU118" s="1"/>
-      <c r="CV118" s="1"/>
-      <c r="CW118" s="1"/>
-      <c r="CX118" s="1"/>
-      <c r="CY118" s="1"/>
-      <c r="CZ118" s="1"/>
-      <c r="DA118" s="1"/>
-      <c r="DB118" s="1"/>
-      <c r="DC118" s="1"/>
-      <c r="DD118" s="1"/>
     </row>
-    <row r="119" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -31845,39 +28187,8 @@
       <c r="BY119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ119" s="1"/>
-      <c r="CA119" s="1"/>
-      <c r="CB119" s="1"/>
-      <c r="CC119" s="1"/>
-      <c r="CD119" s="1"/>
-      <c r="CE119" s="1"/>
-      <c r="CF119" s="1"/>
-      <c r="CG119" s="1"/>
-      <c r="CH119" s="1"/>
-      <c r="CI119" s="1"/>
-      <c r="CJ119" s="1"/>
-      <c r="CK119" s="1"/>
-      <c r="CL119" s="1"/>
-      <c r="CM119" s="1"/>
-      <c r="CN119" s="1"/>
-      <c r="CO119" s="1"/>
-      <c r="CP119" s="1"/>
-      <c r="CQ119" s="1"/>
-      <c r="CR119" s="1"/>
-      <c r="CS119" s="1"/>
-      <c r="CT119" s="1"/>
-      <c r="CU119" s="1"/>
-      <c r="CV119" s="1"/>
-      <c r="CW119" s="1"/>
-      <c r="CX119" s="1"/>
-      <c r="CY119" s="1"/>
-      <c r="CZ119" s="1"/>
-      <c r="DA119" s="1"/>
-      <c r="DB119" s="1"/>
-      <c r="DC119" s="1"/>
-      <c r="DD119" s="1"/>
     </row>
-    <row r="120" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -32109,39 +28420,8 @@
       <c r="BY120" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ120" s="1"/>
-      <c r="CA120" s="1"/>
-      <c r="CB120" s="1"/>
-      <c r="CC120" s="1"/>
-      <c r="CD120" s="1"/>
-      <c r="CE120" s="1"/>
-      <c r="CF120" s="1"/>
-      <c r="CG120" s="1"/>
-      <c r="CH120" s="1"/>
-      <c r="CI120" s="1"/>
-      <c r="CJ120" s="1"/>
-      <c r="CK120" s="1"/>
-      <c r="CL120" s="1"/>
-      <c r="CM120" s="1"/>
-      <c r="CN120" s="1"/>
-      <c r="CO120" s="1"/>
-      <c r="CP120" s="1"/>
-      <c r="CQ120" s="1"/>
-      <c r="CR120" s="1"/>
-      <c r="CS120" s="1"/>
-      <c r="CT120" s="1"/>
-      <c r="CU120" s="1"/>
-      <c r="CV120" s="1"/>
-      <c r="CW120" s="1"/>
-      <c r="CX120" s="1"/>
-      <c r="CY120" s="1"/>
-      <c r="CZ120" s="1"/>
-      <c r="DA120" s="1"/>
-      <c r="DB120" s="1"/>
-      <c r="DC120" s="1"/>
-      <c r="DD120" s="1"/>
     </row>
-    <row r="121" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -32373,39 +28653,8 @@
       <c r="BY121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ121" s="1"/>
-      <c r="CA121" s="1"/>
-      <c r="CB121" s="1"/>
-      <c r="CC121" s="1"/>
-      <c r="CD121" s="1"/>
-      <c r="CE121" s="1"/>
-      <c r="CF121" s="1"/>
-      <c r="CG121" s="1"/>
-      <c r="CH121" s="1"/>
-      <c r="CI121" s="1"/>
-      <c r="CJ121" s="1"/>
-      <c r="CK121" s="1"/>
-      <c r="CL121" s="1"/>
-      <c r="CM121" s="1"/>
-      <c r="CN121" s="1"/>
-      <c r="CO121" s="1"/>
-      <c r="CP121" s="1"/>
-      <c r="CQ121" s="1"/>
-      <c r="CR121" s="1"/>
-      <c r="CS121" s="1"/>
-      <c r="CT121" s="1"/>
-      <c r="CU121" s="1"/>
-      <c r="CV121" s="1"/>
-      <c r="CW121" s="1"/>
-      <c r="CX121" s="1"/>
-      <c r="CY121" s="1"/>
-      <c r="CZ121" s="1"/>
-      <c r="DA121" s="1"/>
-      <c r="DB121" s="1"/>
-      <c r="DC121" s="1"/>
-      <c r="DD121" s="1"/>
     </row>
-    <row r="122" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -32637,39 +28886,8 @@
       <c r="BY122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ122" s="1"/>
-      <c r="CA122" s="1"/>
-      <c r="CB122" s="1"/>
-      <c r="CC122" s="1"/>
-      <c r="CD122" s="1"/>
-      <c r="CE122" s="1"/>
-      <c r="CF122" s="1"/>
-      <c r="CG122" s="1"/>
-      <c r="CH122" s="1"/>
-      <c r="CI122" s="1"/>
-      <c r="CJ122" s="1"/>
-      <c r="CK122" s="1"/>
-      <c r="CL122" s="1"/>
-      <c r="CM122" s="1"/>
-      <c r="CN122" s="1"/>
-      <c r="CO122" s="1"/>
-      <c r="CP122" s="1"/>
-      <c r="CQ122" s="1"/>
-      <c r="CR122" s="1"/>
-      <c r="CS122" s="1"/>
-      <c r="CT122" s="1"/>
-      <c r="CU122" s="1"/>
-      <c r="CV122" s="1"/>
-      <c r="CW122" s="1"/>
-      <c r="CX122" s="1"/>
-      <c r="CY122" s="1"/>
-      <c r="CZ122" s="1"/>
-      <c r="DA122" s="1"/>
-      <c r="DB122" s="1"/>
-      <c r="DC122" s="1"/>
-      <c r="DD122" s="1"/>
     </row>
-    <row r="123" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -32901,39 +29119,8 @@
       <c r="BY123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ123" s="1"/>
-      <c r="CA123" s="1"/>
-      <c r="CB123" s="1"/>
-      <c r="CC123" s="1"/>
-      <c r="CD123" s="1"/>
-      <c r="CE123" s="1"/>
-      <c r="CF123" s="1"/>
-      <c r="CG123" s="1"/>
-      <c r="CH123" s="1"/>
-      <c r="CI123" s="1"/>
-      <c r="CJ123" s="1"/>
-      <c r="CK123" s="1"/>
-      <c r="CL123" s="1"/>
-      <c r="CM123" s="1"/>
-      <c r="CN123" s="1"/>
-      <c r="CO123" s="1"/>
-      <c r="CP123" s="1"/>
-      <c r="CQ123" s="1"/>
-      <c r="CR123" s="1"/>
-      <c r="CS123" s="1"/>
-      <c r="CT123" s="1"/>
-      <c r="CU123" s="1"/>
-      <c r="CV123" s="1"/>
-      <c r="CW123" s="1"/>
-      <c r="CX123" s="1"/>
-      <c r="CY123" s="1"/>
-      <c r="CZ123" s="1"/>
-      <c r="DA123" s="1"/>
-      <c r="DB123" s="1"/>
-      <c r="DC123" s="1"/>
-      <c r="DD123" s="1"/>
     </row>
-    <row r="124" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -33165,39 +29352,8 @@
       <c r="BY124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ124" s="1"/>
-      <c r="CA124" s="1"/>
-      <c r="CB124" s="1"/>
-      <c r="CC124" s="1"/>
-      <c r="CD124" s="1"/>
-      <c r="CE124" s="1"/>
-      <c r="CF124" s="1"/>
-      <c r="CG124" s="1"/>
-      <c r="CH124" s="1"/>
-      <c r="CI124" s="1"/>
-      <c r="CJ124" s="1"/>
-      <c r="CK124" s="1"/>
-      <c r="CL124" s="1"/>
-      <c r="CM124" s="1"/>
-      <c r="CN124" s="1"/>
-      <c r="CO124" s="1"/>
-      <c r="CP124" s="1"/>
-      <c r="CQ124" s="1"/>
-      <c r="CR124" s="1"/>
-      <c r="CS124" s="1"/>
-      <c r="CT124" s="1"/>
-      <c r="CU124" s="1"/>
-      <c r="CV124" s="1"/>
-      <c r="CW124" s="1"/>
-      <c r="CX124" s="1"/>
-      <c r="CY124" s="1"/>
-      <c r="CZ124" s="1"/>
-      <c r="DA124" s="1"/>
-      <c r="DB124" s="1"/>
-      <c r="DC124" s="1"/>
-      <c r="DD124" s="1"/>
     </row>
-    <row r="125" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -33429,39 +29585,8 @@
       <c r="BY125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ125" s="1"/>
-      <c r="CA125" s="1"/>
-      <c r="CB125" s="1"/>
-      <c r="CC125" s="1"/>
-      <c r="CD125" s="1"/>
-      <c r="CE125" s="1"/>
-      <c r="CF125" s="1"/>
-      <c r="CG125" s="1"/>
-      <c r="CH125" s="1"/>
-      <c r="CI125" s="1"/>
-      <c r="CJ125" s="1"/>
-      <c r="CK125" s="1"/>
-      <c r="CL125" s="1"/>
-      <c r="CM125" s="1"/>
-      <c r="CN125" s="1"/>
-      <c r="CO125" s="1"/>
-      <c r="CP125" s="1"/>
-      <c r="CQ125" s="1"/>
-      <c r="CR125" s="1"/>
-      <c r="CS125" s="1"/>
-      <c r="CT125" s="1"/>
-      <c r="CU125" s="1"/>
-      <c r="CV125" s="1"/>
-      <c r="CW125" s="1"/>
-      <c r="CX125" s="1"/>
-      <c r="CY125" s="1"/>
-      <c r="CZ125" s="1"/>
-      <c r="DA125" s="1"/>
-      <c r="DB125" s="1"/>
-      <c r="DC125" s="1"/>
-      <c r="DD125" s="1"/>
     </row>
-    <row r="126" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -33693,39 +29818,8 @@
       <c r="BY126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ126" s="1"/>
-      <c r="CA126" s="1"/>
-      <c r="CB126" s="1"/>
-      <c r="CC126" s="1"/>
-      <c r="CD126" s="1"/>
-      <c r="CE126" s="1"/>
-      <c r="CF126" s="1"/>
-      <c r="CG126" s="1"/>
-      <c r="CH126" s="1"/>
-      <c r="CI126" s="1"/>
-      <c r="CJ126" s="1"/>
-      <c r="CK126" s="1"/>
-      <c r="CL126" s="1"/>
-      <c r="CM126" s="1"/>
-      <c r="CN126" s="1"/>
-      <c r="CO126" s="1"/>
-      <c r="CP126" s="1"/>
-      <c r="CQ126" s="1"/>
-      <c r="CR126" s="1"/>
-      <c r="CS126" s="1"/>
-      <c r="CT126" s="1"/>
-      <c r="CU126" s="1"/>
-      <c r="CV126" s="1"/>
-      <c r="CW126" s="1"/>
-      <c r="CX126" s="1"/>
-      <c r="CY126" s="1"/>
-      <c r="CZ126" s="1"/>
-      <c r="DA126" s="1"/>
-      <c r="DB126" s="1"/>
-      <c r="DC126" s="1"/>
-      <c r="DD126" s="1"/>
     </row>
-    <row r="127" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -33957,39 +30051,8 @@
       <c r="BY127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ127" s="1"/>
-      <c r="CA127" s="1"/>
-      <c r="CB127" s="1"/>
-      <c r="CC127" s="1"/>
-      <c r="CD127" s="1"/>
-      <c r="CE127" s="1"/>
-      <c r="CF127" s="1"/>
-      <c r="CG127" s="1"/>
-      <c r="CH127" s="1"/>
-      <c r="CI127" s="1"/>
-      <c r="CJ127" s="1"/>
-      <c r="CK127" s="1"/>
-      <c r="CL127" s="1"/>
-      <c r="CM127" s="1"/>
-      <c r="CN127" s="1"/>
-      <c r="CO127" s="1"/>
-      <c r="CP127" s="1"/>
-      <c r="CQ127" s="1"/>
-      <c r="CR127" s="1"/>
-      <c r="CS127" s="1"/>
-      <c r="CT127" s="1"/>
-      <c r="CU127" s="1"/>
-      <c r="CV127" s="1"/>
-      <c r="CW127" s="1"/>
-      <c r="CX127" s="1"/>
-      <c r="CY127" s="1"/>
-      <c r="CZ127" s="1"/>
-      <c r="DA127" s="1"/>
-      <c r="DB127" s="1"/>
-      <c r="DC127" s="1"/>
-      <c r="DD127" s="1"/>
     </row>
-    <row r="128" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -34221,39 +30284,8 @@
       <c r="BY128" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ128" s="1"/>
-      <c r="CA128" s="1"/>
-      <c r="CB128" s="1"/>
-      <c r="CC128" s="1"/>
-      <c r="CD128" s="1"/>
-      <c r="CE128" s="1"/>
-      <c r="CF128" s="1"/>
-      <c r="CG128" s="1"/>
-      <c r="CH128" s="1"/>
-      <c r="CI128" s="1"/>
-      <c r="CJ128" s="1"/>
-      <c r="CK128" s="1"/>
-      <c r="CL128" s="1"/>
-      <c r="CM128" s="1"/>
-      <c r="CN128" s="1"/>
-      <c r="CO128" s="1"/>
-      <c r="CP128" s="1"/>
-      <c r="CQ128" s="1"/>
-      <c r="CR128" s="1"/>
-      <c r="CS128" s="1"/>
-      <c r="CT128" s="1"/>
-      <c r="CU128" s="1"/>
-      <c r="CV128" s="1"/>
-      <c r="CW128" s="1"/>
-      <c r="CX128" s="1"/>
-      <c r="CY128" s="1"/>
-      <c r="CZ128" s="1"/>
-      <c r="DA128" s="1"/>
-      <c r="DB128" s="1"/>
-      <c r="DC128" s="1"/>
-      <c r="DD128" s="1"/>
     </row>
-    <row r="129" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
@@ -34485,39 +30517,8 @@
       <c r="BY129" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ129" s="1"/>
-      <c r="CA129" s="1"/>
-      <c r="CB129" s="1"/>
-      <c r="CC129" s="1"/>
-      <c r="CD129" s="1"/>
-      <c r="CE129" s="1"/>
-      <c r="CF129" s="1"/>
-      <c r="CG129" s="1"/>
-      <c r="CH129" s="1"/>
-      <c r="CI129" s="1"/>
-      <c r="CJ129" s="1"/>
-      <c r="CK129" s="1"/>
-      <c r="CL129" s="1"/>
-      <c r="CM129" s="1"/>
-      <c r="CN129" s="1"/>
-      <c r="CO129" s="1"/>
-      <c r="CP129" s="1"/>
-      <c r="CQ129" s="1"/>
-      <c r="CR129" s="1"/>
-      <c r="CS129" s="1"/>
-      <c r="CT129" s="1"/>
-      <c r="CU129" s="1"/>
-      <c r="CV129" s="1"/>
-      <c r="CW129" s="1"/>
-      <c r="CX129" s="1"/>
-      <c r="CY129" s="1"/>
-      <c r="CZ129" s="1"/>
-      <c r="DA129" s="1"/>
-      <c r="DB129" s="1"/>
-      <c r="DC129" s="1"/>
-      <c r="DD129" s="1"/>
     </row>
-    <row r="130" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -34749,39 +30750,8 @@
       <c r="BY130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ130" s="1"/>
-      <c r="CA130" s="1"/>
-      <c r="CB130" s="1"/>
-      <c r="CC130" s="1"/>
-      <c r="CD130" s="1"/>
-      <c r="CE130" s="1"/>
-      <c r="CF130" s="1"/>
-      <c r="CG130" s="1"/>
-      <c r="CH130" s="1"/>
-      <c r="CI130" s="1"/>
-      <c r="CJ130" s="1"/>
-      <c r="CK130" s="1"/>
-      <c r="CL130" s="1"/>
-      <c r="CM130" s="1"/>
-      <c r="CN130" s="1"/>
-      <c r="CO130" s="1"/>
-      <c r="CP130" s="1"/>
-      <c r="CQ130" s="1"/>
-      <c r="CR130" s="1"/>
-      <c r="CS130" s="1"/>
-      <c r="CT130" s="1"/>
-      <c r="CU130" s="1"/>
-      <c r="CV130" s="1"/>
-      <c r="CW130" s="1"/>
-      <c r="CX130" s="1"/>
-      <c r="CY130" s="1"/>
-      <c r="CZ130" s="1"/>
-      <c r="DA130" s="1"/>
-      <c r="DB130" s="1"/>
-      <c r="DC130" s="1"/>
-      <c r="DD130" s="1"/>
     </row>
-    <row r="131" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -35013,39 +30983,8 @@
       <c r="BY131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ131" s="1"/>
-      <c r="CA131" s="1"/>
-      <c r="CB131" s="1"/>
-      <c r="CC131" s="1"/>
-      <c r="CD131" s="1"/>
-      <c r="CE131" s="1"/>
-      <c r="CF131" s="1"/>
-      <c r="CG131" s="1"/>
-      <c r="CH131" s="1"/>
-      <c r="CI131" s="1"/>
-      <c r="CJ131" s="1"/>
-      <c r="CK131" s="1"/>
-      <c r="CL131" s="1"/>
-      <c r="CM131" s="1"/>
-      <c r="CN131" s="1"/>
-      <c r="CO131" s="1"/>
-      <c r="CP131" s="1"/>
-      <c r="CQ131" s="1"/>
-      <c r="CR131" s="1"/>
-      <c r="CS131" s="1"/>
-      <c r="CT131" s="1"/>
-      <c r="CU131" s="1"/>
-      <c r="CV131" s="1"/>
-      <c r="CW131" s="1"/>
-      <c r="CX131" s="1"/>
-      <c r="CY131" s="1"/>
-      <c r="CZ131" s="1"/>
-      <c r="DA131" s="1"/>
-      <c r="DB131" s="1"/>
-      <c r="DC131" s="1"/>
-      <c r="DD131" s="1"/>
     </row>
-    <row r="132" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -35277,39 +31216,8 @@
       <c r="BY132" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ132" s="1"/>
-      <c r="CA132" s="1"/>
-      <c r="CB132" s="1"/>
-      <c r="CC132" s="1"/>
-      <c r="CD132" s="1"/>
-      <c r="CE132" s="1"/>
-      <c r="CF132" s="1"/>
-      <c r="CG132" s="1"/>
-      <c r="CH132" s="1"/>
-      <c r="CI132" s="1"/>
-      <c r="CJ132" s="1"/>
-      <c r="CK132" s="1"/>
-      <c r="CL132" s="1"/>
-      <c r="CM132" s="1"/>
-      <c r="CN132" s="1"/>
-      <c r="CO132" s="1"/>
-      <c r="CP132" s="1"/>
-      <c r="CQ132" s="1"/>
-      <c r="CR132" s="1"/>
-      <c r="CS132" s="1"/>
-      <c r="CT132" s="1"/>
-      <c r="CU132" s="1"/>
-      <c r="CV132" s="1"/>
-      <c r="CW132" s="1"/>
-      <c r="CX132" s="1"/>
-      <c r="CY132" s="1"/>
-      <c r="CZ132" s="1"/>
-      <c r="DA132" s="1"/>
-      <c r="DB132" s="1"/>
-      <c r="DC132" s="1"/>
-      <c r="DD132" s="1"/>
     </row>
-    <row r="133" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -35541,39 +31449,8 @@
       <c r="BY133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ133" s="1"/>
-      <c r="CA133" s="1"/>
-      <c r="CB133" s="1"/>
-      <c r="CC133" s="1"/>
-      <c r="CD133" s="1"/>
-      <c r="CE133" s="1"/>
-      <c r="CF133" s="1"/>
-      <c r="CG133" s="1"/>
-      <c r="CH133" s="1"/>
-      <c r="CI133" s="1"/>
-      <c r="CJ133" s="1"/>
-      <c r="CK133" s="1"/>
-      <c r="CL133" s="1"/>
-      <c r="CM133" s="1"/>
-      <c r="CN133" s="1"/>
-      <c r="CO133" s="1"/>
-      <c r="CP133" s="1"/>
-      <c r="CQ133" s="1"/>
-      <c r="CR133" s="1"/>
-      <c r="CS133" s="1"/>
-      <c r="CT133" s="1"/>
-      <c r="CU133" s="1"/>
-      <c r="CV133" s="1"/>
-      <c r="CW133" s="1"/>
-      <c r="CX133" s="1"/>
-      <c r="CY133" s="1"/>
-      <c r="CZ133" s="1"/>
-      <c r="DA133" s="1"/>
-      <c r="DB133" s="1"/>
-      <c r="DC133" s="1"/>
-      <c r="DD133" s="1"/>
     </row>
-    <row r="134" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -35805,39 +31682,8 @@
       <c r="BY134" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ134" s="1"/>
-      <c r="CA134" s="1"/>
-      <c r="CB134" s="1"/>
-      <c r="CC134" s="1"/>
-      <c r="CD134" s="1"/>
-      <c r="CE134" s="1"/>
-      <c r="CF134" s="1"/>
-      <c r="CG134" s="1"/>
-      <c r="CH134" s="1"/>
-      <c r="CI134" s="1"/>
-      <c r="CJ134" s="1"/>
-      <c r="CK134" s="1"/>
-      <c r="CL134" s="1"/>
-      <c r="CM134" s="1"/>
-      <c r="CN134" s="1"/>
-      <c r="CO134" s="1"/>
-      <c r="CP134" s="1"/>
-      <c r="CQ134" s="1"/>
-      <c r="CR134" s="1"/>
-      <c r="CS134" s="1"/>
-      <c r="CT134" s="1"/>
-      <c r="CU134" s="1"/>
-      <c r="CV134" s="1"/>
-      <c r="CW134" s="1"/>
-      <c r="CX134" s="1"/>
-      <c r="CY134" s="1"/>
-      <c r="CZ134" s="1"/>
-      <c r="DA134" s="1"/>
-      <c r="DB134" s="1"/>
-      <c r="DC134" s="1"/>
-      <c r="DD134" s="1"/>
     </row>
-    <row r="135" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -36069,39 +31915,8 @@
       <c r="BY135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ135" s="1"/>
-      <c r="CA135" s="1"/>
-      <c r="CB135" s="1"/>
-      <c r="CC135" s="1"/>
-      <c r="CD135" s="1"/>
-      <c r="CE135" s="1"/>
-      <c r="CF135" s="1"/>
-      <c r="CG135" s="1"/>
-      <c r="CH135" s="1"/>
-      <c r="CI135" s="1"/>
-      <c r="CJ135" s="1"/>
-      <c r="CK135" s="1"/>
-      <c r="CL135" s="1"/>
-      <c r="CM135" s="1"/>
-      <c r="CN135" s="1"/>
-      <c r="CO135" s="1"/>
-      <c r="CP135" s="1"/>
-      <c r="CQ135" s="1"/>
-      <c r="CR135" s="1"/>
-      <c r="CS135" s="1"/>
-      <c r="CT135" s="1"/>
-      <c r="CU135" s="1"/>
-      <c r="CV135" s="1"/>
-      <c r="CW135" s="1"/>
-      <c r="CX135" s="1"/>
-      <c r="CY135" s="1"/>
-      <c r="CZ135" s="1"/>
-      <c r="DA135" s="1"/>
-      <c r="DB135" s="1"/>
-      <c r="DC135" s="1"/>
-      <c r="DD135" s="1"/>
     </row>
-    <row r="136" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -36333,39 +32148,8 @@
       <c r="BY136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ136" s="1"/>
-      <c r="CA136" s="1"/>
-      <c r="CB136" s="1"/>
-      <c r="CC136" s="1"/>
-      <c r="CD136" s="1"/>
-      <c r="CE136" s="1"/>
-      <c r="CF136" s="1"/>
-      <c r="CG136" s="1"/>
-      <c r="CH136" s="1"/>
-      <c r="CI136" s="1"/>
-      <c r="CJ136" s="1"/>
-      <c r="CK136" s="1"/>
-      <c r="CL136" s="1"/>
-      <c r="CM136" s="1"/>
-      <c r="CN136" s="1"/>
-      <c r="CO136" s="1"/>
-      <c r="CP136" s="1"/>
-      <c r="CQ136" s="1"/>
-      <c r="CR136" s="1"/>
-      <c r="CS136" s="1"/>
-      <c r="CT136" s="1"/>
-      <c r="CU136" s="1"/>
-      <c r="CV136" s="1"/>
-      <c r="CW136" s="1"/>
-      <c r="CX136" s="1"/>
-      <c r="CY136" s="1"/>
-      <c r="CZ136" s="1"/>
-      <c r="DA136" s="1"/>
-      <c r="DB136" s="1"/>
-      <c r="DC136" s="1"/>
-      <c r="DD136" s="1"/>
     </row>
-    <row r="137" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -36597,39 +32381,8 @@
       <c r="BY137" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ137" s="1"/>
-      <c r="CA137" s="1"/>
-      <c r="CB137" s="1"/>
-      <c r="CC137" s="1"/>
-      <c r="CD137" s="1"/>
-      <c r="CE137" s="1"/>
-      <c r="CF137" s="1"/>
-      <c r="CG137" s="1"/>
-      <c r="CH137" s="1"/>
-      <c r="CI137" s="1"/>
-      <c r="CJ137" s="1"/>
-      <c r="CK137" s="1"/>
-      <c r="CL137" s="1"/>
-      <c r="CM137" s="1"/>
-      <c r="CN137" s="1"/>
-      <c r="CO137" s="1"/>
-      <c r="CP137" s="1"/>
-      <c r="CQ137" s="1"/>
-      <c r="CR137" s="1"/>
-      <c r="CS137" s="1"/>
-      <c r="CT137" s="1"/>
-      <c r="CU137" s="1"/>
-      <c r="CV137" s="1"/>
-      <c r="CW137" s="1"/>
-      <c r="CX137" s="1"/>
-      <c r="CY137" s="1"/>
-      <c r="CZ137" s="1"/>
-      <c r="DA137" s="1"/>
-      <c r="DB137" s="1"/>
-      <c r="DC137" s="1"/>
-      <c r="DD137" s="1"/>
     </row>
-    <row r="138" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -36861,39 +32614,8 @@
       <c r="BY138" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ138" s="1"/>
-      <c r="CA138" s="1"/>
-      <c r="CB138" s="1"/>
-      <c r="CC138" s="1"/>
-      <c r="CD138" s="1"/>
-      <c r="CE138" s="1"/>
-      <c r="CF138" s="1"/>
-      <c r="CG138" s="1"/>
-      <c r="CH138" s="1"/>
-      <c r="CI138" s="1"/>
-      <c r="CJ138" s="1"/>
-      <c r="CK138" s="1"/>
-      <c r="CL138" s="1"/>
-      <c r="CM138" s="1"/>
-      <c r="CN138" s="1"/>
-      <c r="CO138" s="1"/>
-      <c r="CP138" s="1"/>
-      <c r="CQ138" s="1"/>
-      <c r="CR138" s="1"/>
-      <c r="CS138" s="1"/>
-      <c r="CT138" s="1"/>
-      <c r="CU138" s="1"/>
-      <c r="CV138" s="1"/>
-      <c r="CW138" s="1"/>
-      <c r="CX138" s="1"/>
-      <c r="CY138" s="1"/>
-      <c r="CZ138" s="1"/>
-      <c r="DA138" s="1"/>
-      <c r="DB138" s="1"/>
-      <c r="DC138" s="1"/>
-      <c r="DD138" s="1"/>
     </row>
-    <row r="139" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -37125,39 +32847,8 @@
       <c r="BY139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ139" s="1"/>
-      <c r="CA139" s="1"/>
-      <c r="CB139" s="1"/>
-      <c r="CC139" s="1"/>
-      <c r="CD139" s="1"/>
-      <c r="CE139" s="1"/>
-      <c r="CF139" s="1"/>
-      <c r="CG139" s="1"/>
-      <c r="CH139" s="1"/>
-      <c r="CI139" s="1"/>
-      <c r="CJ139" s="1"/>
-      <c r="CK139" s="1"/>
-      <c r="CL139" s="1"/>
-      <c r="CM139" s="1"/>
-      <c r="CN139" s="1"/>
-      <c r="CO139" s="1"/>
-      <c r="CP139" s="1"/>
-      <c r="CQ139" s="1"/>
-      <c r="CR139" s="1"/>
-      <c r="CS139" s="1"/>
-      <c r="CT139" s="1"/>
-      <c r="CU139" s="1"/>
-      <c r="CV139" s="1"/>
-      <c r="CW139" s="1"/>
-      <c r="CX139" s="1"/>
-      <c r="CY139" s="1"/>
-      <c r="CZ139" s="1"/>
-      <c r="DA139" s="1"/>
-      <c r="DB139" s="1"/>
-      <c r="DC139" s="1"/>
-      <c r="DD139" s="1"/>
     </row>
-    <row r="140" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -37389,39 +33080,8 @@
       <c r="BY140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ140" s="1"/>
-      <c r="CA140" s="1"/>
-      <c r="CB140" s="1"/>
-      <c r="CC140" s="1"/>
-      <c r="CD140" s="1"/>
-      <c r="CE140" s="1"/>
-      <c r="CF140" s="1"/>
-      <c r="CG140" s="1"/>
-      <c r="CH140" s="1"/>
-      <c r="CI140" s="1"/>
-      <c r="CJ140" s="1"/>
-      <c r="CK140" s="1"/>
-      <c r="CL140" s="1"/>
-      <c r="CM140" s="1"/>
-      <c r="CN140" s="1"/>
-      <c r="CO140" s="1"/>
-      <c r="CP140" s="1"/>
-      <c r="CQ140" s="1"/>
-      <c r="CR140" s="1"/>
-      <c r="CS140" s="1"/>
-      <c r="CT140" s="1"/>
-      <c r="CU140" s="1"/>
-      <c r="CV140" s="1"/>
-      <c r="CW140" s="1"/>
-      <c r="CX140" s="1"/>
-      <c r="CY140" s="1"/>
-      <c r="CZ140" s="1"/>
-      <c r="DA140" s="1"/>
-      <c r="DB140" s="1"/>
-      <c r="DC140" s="1"/>
-      <c r="DD140" s="1"/>
     </row>
-    <row r="141" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -37653,39 +33313,8 @@
       <c r="BY141" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ141" s="1"/>
-      <c r="CA141" s="1"/>
-      <c r="CB141" s="1"/>
-      <c r="CC141" s="1"/>
-      <c r="CD141" s="1"/>
-      <c r="CE141" s="1"/>
-      <c r="CF141" s="1"/>
-      <c r="CG141" s="1"/>
-      <c r="CH141" s="1"/>
-      <c r="CI141" s="1"/>
-      <c r="CJ141" s="1"/>
-      <c r="CK141" s="1"/>
-      <c r="CL141" s="1"/>
-      <c r="CM141" s="1"/>
-      <c r="CN141" s="1"/>
-      <c r="CO141" s="1"/>
-      <c r="CP141" s="1"/>
-      <c r="CQ141" s="1"/>
-      <c r="CR141" s="1"/>
-      <c r="CS141" s="1"/>
-      <c r="CT141" s="1"/>
-      <c r="CU141" s="1"/>
-      <c r="CV141" s="1"/>
-      <c r="CW141" s="1"/>
-      <c r="CX141" s="1"/>
-      <c r="CY141" s="1"/>
-      <c r="CZ141" s="1"/>
-      <c r="DA141" s="1"/>
-      <c r="DB141" s="1"/>
-      <c r="DC141" s="1"/>
-      <c r="DD141" s="1"/>
     </row>
-    <row r="142" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -37917,39 +33546,8 @@
       <c r="BY142" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ142" s="1"/>
-      <c r="CA142" s="1"/>
-      <c r="CB142" s="1"/>
-      <c r="CC142" s="1"/>
-      <c r="CD142" s="1"/>
-      <c r="CE142" s="1"/>
-      <c r="CF142" s="1"/>
-      <c r="CG142" s="1"/>
-      <c r="CH142" s="1"/>
-      <c r="CI142" s="1"/>
-      <c r="CJ142" s="1"/>
-      <c r="CK142" s="1"/>
-      <c r="CL142" s="1"/>
-      <c r="CM142" s="1"/>
-      <c r="CN142" s="1"/>
-      <c r="CO142" s="1"/>
-      <c r="CP142" s="1"/>
-      <c r="CQ142" s="1"/>
-      <c r="CR142" s="1"/>
-      <c r="CS142" s="1"/>
-      <c r="CT142" s="1"/>
-      <c r="CU142" s="1"/>
-      <c r="CV142" s="1"/>
-      <c r="CW142" s="1"/>
-      <c r="CX142" s="1"/>
-      <c r="CY142" s="1"/>
-      <c r="CZ142" s="1"/>
-      <c r="DA142" s="1"/>
-      <c r="DB142" s="1"/>
-      <c r="DC142" s="1"/>
-      <c r="DD142" s="1"/>
     </row>
-    <row r="143" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -38181,39 +33779,8 @@
       <c r="BY143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ143" s="1"/>
-      <c r="CA143" s="1"/>
-      <c r="CB143" s="1"/>
-      <c r="CC143" s="1"/>
-      <c r="CD143" s="1"/>
-      <c r="CE143" s="1"/>
-      <c r="CF143" s="1"/>
-      <c r="CG143" s="1"/>
-      <c r="CH143" s="1"/>
-      <c r="CI143" s="1"/>
-      <c r="CJ143" s="1"/>
-      <c r="CK143" s="1"/>
-      <c r="CL143" s="1"/>
-      <c r="CM143" s="1"/>
-      <c r="CN143" s="1"/>
-      <c r="CO143" s="1"/>
-      <c r="CP143" s="1"/>
-      <c r="CQ143" s="1"/>
-      <c r="CR143" s="1"/>
-      <c r="CS143" s="1"/>
-      <c r="CT143" s="1"/>
-      <c r="CU143" s="1"/>
-      <c r="CV143" s="1"/>
-      <c r="CW143" s="1"/>
-      <c r="CX143" s="1"/>
-      <c r="CY143" s="1"/>
-      <c r="CZ143" s="1"/>
-      <c r="DA143" s="1"/>
-      <c r="DB143" s="1"/>
-      <c r="DC143" s="1"/>
-      <c r="DD143" s="1"/>
     </row>
-    <row r="144" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -38445,39 +34012,8 @@
       <c r="BY144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ144" s="1"/>
-      <c r="CA144" s="1"/>
-      <c r="CB144" s="1"/>
-      <c r="CC144" s="1"/>
-      <c r="CD144" s="1"/>
-      <c r="CE144" s="1"/>
-      <c r="CF144" s="1"/>
-      <c r="CG144" s="1"/>
-      <c r="CH144" s="1"/>
-      <c r="CI144" s="1"/>
-      <c r="CJ144" s="1"/>
-      <c r="CK144" s="1"/>
-      <c r="CL144" s="1"/>
-      <c r="CM144" s="1"/>
-      <c r="CN144" s="1"/>
-      <c r="CO144" s="1"/>
-      <c r="CP144" s="1"/>
-      <c r="CQ144" s="1"/>
-      <c r="CR144" s="1"/>
-      <c r="CS144" s="1"/>
-      <c r="CT144" s="1"/>
-      <c r="CU144" s="1"/>
-      <c r="CV144" s="1"/>
-      <c r="CW144" s="1"/>
-      <c r="CX144" s="1"/>
-      <c r="CY144" s="1"/>
-      <c r="CZ144" s="1"/>
-      <c r="DA144" s="1"/>
-      <c r="DB144" s="1"/>
-      <c r="DC144" s="1"/>
-      <c r="DD144" s="1"/>
     </row>
-    <row r="145" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -38709,39 +34245,8 @@
       <c r="BY145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ145" s="1"/>
-      <c r="CA145" s="1"/>
-      <c r="CB145" s="1"/>
-      <c r="CC145" s="1"/>
-      <c r="CD145" s="1"/>
-      <c r="CE145" s="1"/>
-      <c r="CF145" s="1"/>
-      <c r="CG145" s="1"/>
-      <c r="CH145" s="1"/>
-      <c r="CI145" s="1"/>
-      <c r="CJ145" s="1"/>
-      <c r="CK145" s="1"/>
-      <c r="CL145" s="1"/>
-      <c r="CM145" s="1"/>
-      <c r="CN145" s="1"/>
-      <c r="CO145" s="1"/>
-      <c r="CP145" s="1"/>
-      <c r="CQ145" s="1"/>
-      <c r="CR145" s="1"/>
-      <c r="CS145" s="1"/>
-      <c r="CT145" s="1"/>
-      <c r="CU145" s="1"/>
-      <c r="CV145" s="1"/>
-      <c r="CW145" s="1"/>
-      <c r="CX145" s="1"/>
-      <c r="CY145" s="1"/>
-      <c r="CZ145" s="1"/>
-      <c r="DA145" s="1"/>
-      <c r="DB145" s="1"/>
-      <c r="DC145" s="1"/>
-      <c r="DD145" s="1"/>
     </row>
-    <row r="146" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -38973,39 +34478,8 @@
       <c r="BY146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ146" s="1"/>
-      <c r="CA146" s="1"/>
-      <c r="CB146" s="1"/>
-      <c r="CC146" s="1"/>
-      <c r="CD146" s="1"/>
-      <c r="CE146" s="1"/>
-      <c r="CF146" s="1"/>
-      <c r="CG146" s="1"/>
-      <c r="CH146" s="1"/>
-      <c r="CI146" s="1"/>
-      <c r="CJ146" s="1"/>
-      <c r="CK146" s="1"/>
-      <c r="CL146" s="1"/>
-      <c r="CM146" s="1"/>
-      <c r="CN146" s="1"/>
-      <c r="CO146" s="1"/>
-      <c r="CP146" s="1"/>
-      <c r="CQ146" s="1"/>
-      <c r="CR146" s="1"/>
-      <c r="CS146" s="1"/>
-      <c r="CT146" s="1"/>
-      <c r="CU146" s="1"/>
-      <c r="CV146" s="1"/>
-      <c r="CW146" s="1"/>
-      <c r="CX146" s="1"/>
-      <c r="CY146" s="1"/>
-      <c r="CZ146" s="1"/>
-      <c r="DA146" s="1"/>
-      <c r="DB146" s="1"/>
-      <c r="DC146" s="1"/>
-      <c r="DD146" s="1"/>
     </row>
-    <row r="147" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -39237,39 +34711,8 @@
       <c r="BY147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ147" s="1"/>
-      <c r="CA147" s="1"/>
-      <c r="CB147" s="1"/>
-      <c r="CC147" s="1"/>
-      <c r="CD147" s="1"/>
-      <c r="CE147" s="1"/>
-      <c r="CF147" s="1"/>
-      <c r="CG147" s="1"/>
-      <c r="CH147" s="1"/>
-      <c r="CI147" s="1"/>
-      <c r="CJ147" s="1"/>
-      <c r="CK147" s="1"/>
-      <c r="CL147" s="1"/>
-      <c r="CM147" s="1"/>
-      <c r="CN147" s="1"/>
-      <c r="CO147" s="1"/>
-      <c r="CP147" s="1"/>
-      <c r="CQ147" s="1"/>
-      <c r="CR147" s="1"/>
-      <c r="CS147" s="1"/>
-      <c r="CT147" s="1"/>
-      <c r="CU147" s="1"/>
-      <c r="CV147" s="1"/>
-      <c r="CW147" s="1"/>
-      <c r="CX147" s="1"/>
-      <c r="CY147" s="1"/>
-      <c r="CZ147" s="1"/>
-      <c r="DA147" s="1"/>
-      <c r="DB147" s="1"/>
-      <c r="DC147" s="1"/>
-      <c r="DD147" s="1"/>
     </row>
-    <row r="148" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -39501,39 +34944,8 @@
       <c r="BY148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ148" s="1"/>
-      <c r="CA148" s="1"/>
-      <c r="CB148" s="1"/>
-      <c r="CC148" s="1"/>
-      <c r="CD148" s="1"/>
-      <c r="CE148" s="1"/>
-      <c r="CF148" s="1"/>
-      <c r="CG148" s="1"/>
-      <c r="CH148" s="1"/>
-      <c r="CI148" s="1"/>
-      <c r="CJ148" s="1"/>
-      <c r="CK148" s="1"/>
-      <c r="CL148" s="1"/>
-      <c r="CM148" s="1"/>
-      <c r="CN148" s="1"/>
-      <c r="CO148" s="1"/>
-      <c r="CP148" s="1"/>
-      <c r="CQ148" s="1"/>
-      <c r="CR148" s="1"/>
-      <c r="CS148" s="1"/>
-      <c r="CT148" s="1"/>
-      <c r="CU148" s="1"/>
-      <c r="CV148" s="1"/>
-      <c r="CW148" s="1"/>
-      <c r="CX148" s="1"/>
-      <c r="CY148" s="1"/>
-      <c r="CZ148" s="1"/>
-      <c r="DA148" s="1"/>
-      <c r="DB148" s="1"/>
-      <c r="DC148" s="1"/>
-      <c r="DD148" s="1"/>
     </row>
-    <row r="149" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>0</v>
       </c>
@@ -39765,39 +35177,8 @@
       <c r="BY149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ149" s="1"/>
-      <c r="CA149" s="1"/>
-      <c r="CB149" s="1"/>
-      <c r="CC149" s="1"/>
-      <c r="CD149" s="1"/>
-      <c r="CE149" s="1"/>
-      <c r="CF149" s="1"/>
-      <c r="CG149" s="1"/>
-      <c r="CH149" s="1"/>
-      <c r="CI149" s="1"/>
-      <c r="CJ149" s="1"/>
-      <c r="CK149" s="1"/>
-      <c r="CL149" s="1"/>
-      <c r="CM149" s="1"/>
-      <c r="CN149" s="1"/>
-      <c r="CO149" s="1"/>
-      <c r="CP149" s="1"/>
-      <c r="CQ149" s="1"/>
-      <c r="CR149" s="1"/>
-      <c r="CS149" s="1"/>
-      <c r="CT149" s="1"/>
-      <c r="CU149" s="1"/>
-      <c r="CV149" s="1"/>
-      <c r="CW149" s="1"/>
-      <c r="CX149" s="1"/>
-      <c r="CY149" s="1"/>
-      <c r="CZ149" s="1"/>
-      <c r="DA149" s="1"/>
-      <c r="DB149" s="1"/>
-      <c r="DC149" s="1"/>
-      <c r="DD149" s="1"/>
     </row>
-    <row r="150" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -40029,46 +35410,15 @@
       <c r="BY150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BZ150" s="1"/>
-      <c r="CA150" s="1"/>
-      <c r="CB150" s="1"/>
-      <c r="CC150" s="1"/>
-      <c r="CD150" s="1"/>
-      <c r="CE150" s="1"/>
-      <c r="CF150" s="1"/>
-      <c r="CG150" s="1"/>
-      <c r="CH150" s="1"/>
-      <c r="CI150" s="1"/>
-      <c r="CJ150" s="1"/>
-      <c r="CK150" s="1"/>
-      <c r="CL150" s="1"/>
-      <c r="CM150" s="1"/>
-      <c r="CN150" s="1"/>
-      <c r="CO150" s="1"/>
-      <c r="CP150" s="1"/>
-      <c r="CQ150" s="1"/>
-      <c r="CR150" s="1"/>
-      <c r="CS150" s="1"/>
-      <c r="CT150" s="1"/>
-      <c r="CU150" s="1"/>
-      <c r="CV150" s="1"/>
-      <c r="CW150" s="1"/>
-      <c r="CX150" s="1"/>
-      <c r="CY150" s="1"/>
-      <c r="CZ150" s="1"/>
-      <c r="DA150" s="1"/>
-      <c r="DB150" s="1"/>
-      <c r="DC150" s="1"/>
-      <c r="DD150" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:DD150">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="0/1">
+  <conditionalFormatting sqref="A1:BY150">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="0/2">
+      <formula>NOT(ISERROR(SEARCH("0/2",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="0/1">
       <formula>NOT(ISERROR(SEARCH("0/1",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="0/2">
-      <formula>NOT(ISERROR(SEARCH("0/2",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35:AD51 AC39:AF41 AD41:AF45 X38:Z49">
